--- a/ROSÉ Business Insights.xlsx
+++ b/ROSÉ Business Insights.xlsx
@@ -5,26 +5,40 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nzmz_\Desktop\Data Analyst Portfolio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nzmz_\Desktop\Data Analyst Portfolio\Ros-_Entertainment_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF358A55-0E38-479D-9DFF-91F26AB84CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0B9B9A-E049-474A-9337-5DA58AC8B4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0FA3C6EE-BCC2-4624-8E49-B02A035F49AC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="16" xr2:uid="{0FA3C6EE-BCC2-4624-8E49-B02A035F49AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Notes" sheetId="2" r:id="rId1"/>
     <sheet name="Summary" sheetId="1" r:id="rId2"/>
     <sheet name="Spotify" sheetId="3" r:id="rId3"/>
-    <sheet name="YouTube" sheetId="4" r:id="rId4"/>
-    <sheet name="Instagram" sheetId="5" r:id="rId5"/>
-    <sheet name="Twitter_X" sheetId="6" r:id="rId6"/>
-    <sheet name="Google Trends" sheetId="7" r:id="rId7"/>
+    <sheet name="SpotifyData_Stats" sheetId="9" r:id="rId4"/>
+    <sheet name="SpotifyData_Tracks" sheetId="10" r:id="rId5"/>
+    <sheet name="SpotifyData_Albums" sheetId="11" r:id="rId6"/>
+    <sheet name="YouTube" sheetId="4" r:id="rId7"/>
+    <sheet name="YouTubeData_Stats" sheetId="12" r:id="rId8"/>
+    <sheet name="YouTubeData_MVs" sheetId="13" r:id="rId9"/>
+    <sheet name="Instagram" sheetId="5" r:id="rId10"/>
+    <sheet name="InstagramData_Stats" sheetId="14" r:id="rId11"/>
+    <sheet name="InstagramData_Posts" sheetId="15" r:id="rId12"/>
+    <sheet name="Twitter_X" sheetId="6" r:id="rId13"/>
+    <sheet name="TwitterData_Stats" sheetId="16" r:id="rId14"/>
+    <sheet name="TwitterData_Tweets" sheetId="17" r:id="rId15"/>
+    <sheet name="Google Trends" sheetId="7" r:id="rId16"/>
+    <sheet name="GoogleTrends_InterestOverTime" sheetId="18" r:id="rId17"/>
+    <sheet name="GoogleTrends_InterestOverRegion" sheetId="19" r:id="rId18"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId19"/>
   </externalReferences>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId20"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -65,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="162">
   <si>
     <t>ROSÉ Entertainment Data</t>
   </si>
@@ -203,9 +217,6 @@
     <t>Section B: Tracks Data</t>
   </si>
   <si>
-    <t>623,276 listeners</t>
-  </si>
-  <si>
     <t>Stream</t>
   </si>
   <si>
@@ -267,9 +278,6 @@
   </si>
   <si>
     <t>You'll Be Alright, Kid</t>
-  </si>
-  <si>
-    <t>As of 14/9/2025</t>
   </si>
   <si>
     <t>toxic till the end</t>
@@ -618,6 +626,27 @@
   </si>
   <si>
     <t>Major Market</t>
+  </si>
+  <si>
+    <t>As of 20/9/2025</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>618,184 listeners</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Stream</t>
+  </si>
+  <si>
+    <t>Follower Count</t>
   </si>
 </sst>
 </file>
@@ -776,7 +805,7 @@
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -807,9 +836,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -853,6 +879,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -884,11 +927,21 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1098,6 +1151,317 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Zulaikha Zulasri" refreshedDate="45920.838263078702" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="17" xr:uid="{753EE862-D31A-4654-998A-092F4383BEDC}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E18" sheet="SpotifyData_Tracks"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Track Title" numFmtId="0">
+      <sharedItems count="17">
+        <s v="Gone"/>
+        <s v="On The Ground"/>
+        <s v="Hard to Love"/>
+        <s v="APT."/>
+        <s v="toxic till the end"/>
+        <s v="number one girl"/>
+        <s v="too bad for us"/>
+        <s v="stay a little longer"/>
+        <s v="dance all night"/>
+        <s v="drinks or coffee"/>
+        <s v="3am"/>
+        <s v="gameboy"/>
+        <s v="call it the end"/>
+        <s v="two years"/>
+        <s v="not the same"/>
+        <s v="Messy"/>
+        <s v="On My Mind"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Album Title" numFmtId="0">
+      <sharedItems count="5">
+        <s v="-R-"/>
+        <s v="BORN PINK"/>
+        <s v="rosie"/>
+        <s v="F1 The Album"/>
+        <s v="You'll Be Alright, Kid"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Stream" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="33258008" maxValue="2000246989"/>
+    </cacheField>
+    <cacheField name="Release Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2021-03-12T00:00:00" maxDate="2025-06-28T00:00:00"/>
+    </cacheField>
+    <cacheField name="Duration" numFmtId="20">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T02:13:00" maxDate="1899-12-30T04:06:00"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="17">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="429228868"/>
+    <d v="2021-03-12T00:00:00"/>
+    <d v="1899-12-30T03:27:00"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="550558851"/>
+    <d v="2021-03-12T00:00:00"/>
+    <d v="1899-12-30T02:48:00"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="253078600"/>
+    <d v="2022-09-16T00:00:00"/>
+    <d v="1899-12-30T02:42:00"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="2000246989"/>
+    <d v="2024-12-06T00:00:00"/>
+    <d v="1899-12-30T02:49:00"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="322047684"/>
+    <d v="2024-12-06T00:00:00"/>
+    <d v="1899-12-30T02:36:00"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="251175060"/>
+    <d v="2024-12-06T00:00:00"/>
+    <d v="1899-12-30T03:36:00"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="40081478"/>
+    <d v="2024-12-06T00:00:00"/>
+    <d v="1899-12-30T03:56:00"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="70989383"/>
+    <d v="2024-12-06T00:00:00"/>
+    <d v="1899-12-30T04:06:00"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="39338067"/>
+    <d v="2024-12-06T00:00:00"/>
+    <d v="1899-12-30T03:34:00"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <n v="101679472"/>
+    <d v="2024-12-06T00:00:00"/>
+    <d v="1899-12-30T02:13:00"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <n v="62453834"/>
+    <d v="2024-12-06T00:00:00"/>
+    <d v="1899-12-30T02:34:00"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="2"/>
+    <n v="67635844"/>
+    <d v="2024-12-06T00:00:00"/>
+    <d v="1899-12-30T02:46:00"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="2"/>
+    <n v="33258008"/>
+    <d v="2024-12-06T00:00:00"/>
+    <d v="1899-12-30T02:21:00"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="2"/>
+    <n v="61856927"/>
+    <d v="2024-12-06T00:00:00"/>
+    <d v="1899-12-30T02:47:00"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="2"/>
+    <n v="34529394"/>
+    <d v="2024-12-06T00:00:00"/>
+    <d v="1899-12-30T03:04:00"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="3"/>
+    <n v="107388392"/>
+    <d v="2025-05-08T00:00:00"/>
+    <d v="1899-12-30T02:59:00"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="4"/>
+    <n v="61804850"/>
+    <d v="2025-06-27T00:00:00"/>
+    <d v="1899-12-30T03:09:00"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{10202EDA-500A-4C2D-AF0C-71759D0F0112}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:B24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="18">
+        <item x="10"/>
+        <item x="3"/>
+        <item x="12"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="5"/>
+        <item x="16"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="20" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="23">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Stream" fld="2" baseField="0" baseItem="0" numFmtId="3"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1400,7 +1764,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:K22"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1411,46 +1775,46 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -1458,46 +1822,46 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
     </row>
     <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -1505,84 +1869,84 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
     </row>
     <row r="19" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
     </row>
     <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
@@ -1593,46 +1957,46 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
     </row>
     <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
@@ -1640,84 +2004,84 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1731,1197 +2095,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99222ABA-3DFF-46B1-85CC-008704664EBC}">
-  <dimension ref="A1:K45"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="G1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G2" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34">
-        <v>45914</v>
-      </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="10">
-        <f>C13</f>
-        <v>45914</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="12">
-        <f>Spotify!B4</f>
-        <v>35854388</v>
-      </c>
-      <c r="C13" s="10">
-        <v>45914</v>
-      </c>
-      <c r="D13" s="8" t="str">
-        <f>Spotify!E11</f>
-        <v>As of 14/9/2025</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="12">
-        <f>Spotify!B5</f>
-        <v>12881150</v>
-      </c>
-      <c r="C14" s="10">
-        <v>45914</v>
-      </c>
-      <c r="D14" s="8" t="str">
-        <f>Spotify!E11</f>
-        <v>As of 14/9/2025</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="str">
-        <f>Spotify!B6</f>
-        <v>Indonesia</v>
-      </c>
-      <c r="C15" s="10">
-        <v>45914</v>
-      </c>
-      <c r="D15" s="8" t="str">
-        <f>Spotify!E12</f>
-        <v>As of 14/9/2025</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8" t="str">
-        <f>INDEX(Spotify!A11:A27,MATCH(MAX(Spotify!C11:C27),Spotify!C11:C27,0))</f>
-        <v>APT.</v>
-      </c>
-      <c r="C16" s="10">
-        <v>45914</v>
-      </c>
-      <c r="D16" s="8" t="str">
-        <f>Spotify!E13</f>
-        <v>As of 14/9/2025</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="9">
-        <f>SUM(Spotify!C11:C27)</f>
-        <v>4456271253</v>
-      </c>
-      <c r="C17" s="10">
-        <v>45914</v>
-      </c>
-      <c r="D17" s="8" t="str">
-        <f>Spotify!E14</f>
-        <v>As of 14/9/2025</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="9">
-        <f>YouTube!B4</f>
-        <v>3005219973</v>
-      </c>
-      <c r="C22" s="10">
-        <f>C13</f>
-        <v>45914</v>
-      </c>
-      <c r="D22" s="8" t="str">
-        <f>Spotify!E19</f>
-        <v>As of 14/9/2025</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8" t="str">
-        <f>YouTube!B5</f>
-        <v>APT.</v>
-      </c>
-      <c r="C23" s="10">
-        <f>C14</f>
-        <v>45914</v>
-      </c>
-      <c r="D23" s="8" t="str">
-        <f>Spotify!E20</f>
-        <v>As of 14/9/2025</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="9">
-        <f>YouTube!B7</f>
-        <v>19200000</v>
-      </c>
-      <c r="C24" s="10">
-        <f>C15</f>
-        <v>45914</v>
-      </c>
-      <c r="D24" s="8" t="str">
-        <f>Spotify!E21</f>
-        <v>As of 14/9/2025</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="16">
-        <f>Instagram!B4</f>
-        <v>84601628</v>
-      </c>
-      <c r="C29" s="10">
-        <v>45915</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="11">
-        <f>Instagram!B5</f>
-        <v>1.1243498778018709E-3</v>
-      </c>
-      <c r="C30" s="10">
-        <v>45915</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" s="11">
-        <f>Instagram!B6</f>
-        <v>2.7828374650189946E-2</v>
-      </c>
-      <c r="C31" s="10">
-        <v>45915</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="9">
-        <f>Twitter_X!B5</f>
-        <v>111878</v>
-      </c>
-      <c r="C36" s="10">
-        <v>45915</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="8" t="str">
-        <f>Twitter_X!B6</f>
-        <v>N/A</v>
-      </c>
-      <c r="C37" s="10">
-        <v>45915</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B38" s="11">
-        <f>Twitter_X!B7</f>
-        <v>0.2985698707520692</v>
-      </c>
-      <c r="C38" s="10">
-        <v>45915</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="8" t="str" cm="1">
-        <f t="array" ref="B43">INDEX('Google Trends'!B101:B132, MATCH(LARGE(IF('Google Trends'!D101:D132=1,'Google Trends'!C101:C132),1),'Google Trends'!C101:C132,0))</f>
-        <v>South Korea</v>
-      </c>
-      <c r="C43" s="10">
-        <v>45916</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="25" cm="1">
-        <f t="array" ref="B44">LARGE(IF('Google Trends'!D101:D132=1, 'Google Trends'!C101:C132),1)</f>
-        <v>48.000860000000003</v>
-      </c>
-      <c r="C44" s="10">
-        <v>45916</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="11">
-        <f>('Google Trends'!D57 - 'Google Trends'!D5)/'Google Trends'!D5</f>
-        <v>0.64864864864864868</v>
-      </c>
-      <c r="C45" s="10">
-        <v>45916</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:K2"/>
-  </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA47F01-DFB1-497B-A6BB-550548CE327E}">
-  <dimension ref="A1:H33"/>
-  <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:D33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="D1" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="12">
-        <v>35854388</v>
-      </c>
-      <c r="C4" s="10">
-        <v>45914</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="12">
-        <v>12881150</v>
-      </c>
-      <c r="C5" s="10">
-        <v>45914</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="10">
-        <v>45914</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="C8" s="2"/>
-      <c r="D8" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="12">
-        <v>428324340</v>
-      </c>
-      <c r="D11" s="10">
-        <v>44267</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="12">
-        <v>549676285</v>
-      </c>
-      <c r="D12" s="10">
-        <v>44267</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="12">
-        <v>252694503</v>
-      </c>
-      <c r="D13" s="10">
-        <v>44820</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="12">
-        <v>1986877586</v>
-      </c>
-      <c r="D14" s="10">
-        <v>45632</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="12">
-        <v>319310533</v>
-      </c>
-      <c r="D15" s="10">
-        <v>45632</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="12">
-        <v>249233327</v>
-      </c>
-      <c r="D16" s="10">
-        <v>45632</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="12">
-        <v>39671419</v>
-      </c>
-      <c r="D17" s="10">
-        <v>45632</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="12">
-        <v>70109722</v>
-      </c>
-      <c r="D18" s="10">
-        <v>45632</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="12">
-        <v>39023804</v>
-      </c>
-      <c r="D19" s="10">
-        <v>45632</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="12">
-        <v>100868898</v>
-      </c>
-      <c r="D20" s="10">
-        <v>45632</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="12">
-        <v>61830374</v>
-      </c>
-      <c r="D21" s="10">
-        <v>45632</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="12">
-        <v>66985562</v>
-      </c>
-      <c r="D22" s="10">
-        <v>45632</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="12">
-        <v>32996887</v>
-      </c>
-      <c r="D23" s="10">
-        <v>45632</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="12">
-        <v>61116333</v>
-      </c>
-      <c r="D24" s="10">
-        <v>45632</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="12">
-        <v>34257258</v>
-      </c>
-      <c r="D25" s="10">
-        <v>45632</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="12">
-        <v>104171860</v>
-      </c>
-      <c r="D26" s="10">
-        <v>45785</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="12">
-        <v>59122562</v>
-      </c>
-      <c r="D27" s="10">
-        <v>45835</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="D29" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="10">
-        <v>44267</v>
-      </c>
-      <c r="C32" s="14">
-        <f>SUM(C11:C12)</f>
-        <v>978000625</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="10">
-        <v>45632</v>
-      </c>
-      <c r="C33" s="14">
-        <f>SUM(C14:C25)</f>
-        <v>3062281703</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D29:H29"/>
-  </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4246CB5-CEB4-4EF0-BBBE-F676D56A5CE7}">
-  <dimension ref="A1:I20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="D1" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="9">
-        <f>SUM(C12:C18)</f>
-        <v>3005219973</v>
-      </c>
-      <c r="C4" s="10">
-        <v>45914</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="8" t="str">
-        <f>INDEX(A12:A18, MATCH(MAX(C12:C18),C12:C18,0))</f>
-        <v>APT.</v>
-      </c>
-      <c r="C5" s="10">
-        <v>45914</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="9">
-        <f>MAX(C12:C18)</f>
-        <v>1992446865</v>
-      </c>
-      <c r="C6" s="10">
-        <v>45914</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="9">
-        <v>19200000</v>
-      </c>
-      <c r="C7" s="10">
-        <v>45914</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="D9" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="10">
-        <v>44290</v>
-      </c>
-      <c r="C12" s="9">
-        <v>329120434</v>
-      </c>
-      <c r="D12" s="9">
-        <v>7788972</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="10">
-        <v>44267</v>
-      </c>
-      <c r="C13" s="9">
-        <v>385116882</v>
-      </c>
-      <c r="D13" s="9">
-        <v>11602049</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="10">
-        <v>45583</v>
-      </c>
-      <c r="C14" s="9">
-        <v>1992446865</v>
-      </c>
-      <c r="D14" s="9">
-        <v>16820497</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="10">
-        <v>45618</v>
-      </c>
-      <c r="C15" s="9">
-        <v>118300974</v>
-      </c>
-      <c r="D15" s="9">
-        <v>2502691</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="10">
-        <v>45632</v>
-      </c>
-      <c r="C16" s="9">
-        <v>111656295</v>
-      </c>
-      <c r="D16" s="9">
-        <v>2519506</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="10">
-        <v>45786</v>
-      </c>
-      <c r="C17" s="9">
-        <v>52237673</v>
-      </c>
-      <c r="D17" s="9">
-        <v>1236072</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="10">
-        <v>45835</v>
-      </c>
-      <c r="C18" s="9">
-        <v>16340850</v>
-      </c>
-      <c r="D18" s="9">
-        <v>505543</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="A20:D20"/>
-  </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B78AFE-2775-4C47-90B7-102E4176695D}">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2938,13 +2117,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -2976,33 +2155,33 @@
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>84601628</v>
       </c>
       <c r="C4" s="10">
         <v>45915</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" s="16">
+        <v>87</v>
+      </c>
+      <c r="G4" s="15">
         <v>84601628</v>
       </c>
       <c r="H4" s="10">
         <v>45915</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <f>(G4-G5)/G5</f>
         <v>1.1243498778018709E-3</v>
       </c>
@@ -3010,26 +2189,26 @@
         <v>45915</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="16">
+        <v>88</v>
+      </c>
+      <c r="G5" s="15">
         <v>84506613</v>
       </c>
       <c r="H5" s="10">
         <v>45915</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="17">
+        <v>90</v>
+      </c>
+      <c r="B6" s="16">
         <f>AVERAGE(E11:E20)</f>
         <v>2.7828374650189946E-2</v>
       </c>
@@ -3037,35 +2216,35 @@
         <v>45915</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G6" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="D8" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
+      <c r="D8" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>6</v>
@@ -3076,20 +2255,20 @@
         <v>45913</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="18">
+        <v>80</v>
+      </c>
+      <c r="C11" s="17">
         <v>2820773</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="17">
         <v>19100</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="18">
         <f>SUM(C11:D11)/$B$4</f>
         <v>3.3567592812752962E-2</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -3097,20 +2276,20 @@
         <v>45913</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="18">
+        <v>84</v>
+      </c>
+      <c r="C12" s="17">
         <v>523972</v>
       </c>
       <c r="D12" s="9">
         <v>9452</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="18">
         <f t="shared" ref="E12:E20" si="0">SUM(C12:D12)/$B$4</f>
         <v>6.3051268942484178E-3</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -3118,20 +2297,20 @@
         <v>45913</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="18">
+        <v>80</v>
+      </c>
+      <c r="C13" s="17">
         <v>1846891</v>
       </c>
       <c r="D13" s="9">
         <v>17400</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="18">
         <f t="shared" si="0"/>
         <v>2.2036112591119403E-2</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -3139,20 +2318,20 @@
         <v>45909</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="18">
+        <v>85</v>
+      </c>
+      <c r="C14" s="17">
         <v>2368106</v>
       </c>
       <c r="D14" s="9">
         <v>29000</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="18">
         <f t="shared" si="0"/>
         <v>2.8334041042330768E-2</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3160,20 +2339,20 @@
         <v>45908</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="18">
+        <v>80</v>
+      </c>
+      <c r="C15" s="17">
         <v>3298882</v>
       </c>
       <c r="D15" s="9">
         <v>20600</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="18">
         <f t="shared" si="0"/>
         <v>3.9236620836658131E-2</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -3181,20 +2360,20 @@
         <v>45900</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="18">
+        <v>80</v>
+      </c>
+      <c r="C16" s="17">
         <v>2994676</v>
       </c>
       <c r="D16" s="9">
         <v>22200</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="18">
         <f t="shared" si="0"/>
         <v>3.5659786594177595E-2</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -3202,20 +2381,20 @@
         <v>45895</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="18">
+        <v>80</v>
+      </c>
+      <c r="C17" s="17">
         <v>1358522</v>
       </c>
       <c r="D17" s="9">
         <v>10600</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="18">
         <f t="shared" si="0"/>
         <v>1.6183163756612343E-2</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -3223,20 +2402,20 @@
         <v>45893</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="18">
+        <v>80</v>
+      </c>
+      <c r="C18" s="17">
         <v>2503437</v>
       </c>
       <c r="D18" s="9">
         <v>12400</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="18">
         <f t="shared" si="0"/>
         <v>2.9737453752072006E-2</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -3244,20 +2423,20 @@
         <v>45887</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="18">
+        <v>80</v>
+      </c>
+      <c r="C19" s="17">
         <v>1714256</v>
       </c>
       <c r="D19" s="9">
         <v>11000</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="18">
         <f t="shared" si="0"/>
         <v>2.0392704499729013E-2</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -3265,20 +2444,20 @@
         <v>45880</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="18">
+        <v>80</v>
+      </c>
+      <c r="C20" s="17">
         <v>3941591</v>
       </c>
       <c r="D20" s="9">
         <v>20400</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="18">
         <f t="shared" si="0"/>
         <v>4.683114372219882E-2</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -3288,20 +2467,20 @@
       <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
+      <c r="A23" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
+      <c r="A24" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3315,12 +2494,357 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91B3B8A-11CB-48CE-AB12-C91A660F28AC}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="34"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="15">
+        <v>84601628</v>
+      </c>
+      <c r="C2" s="10">
+        <v>45915</v>
+      </c>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="15">
+        <v>84506613</v>
+      </c>
+      <c r="C3" s="10">
+        <v>45915</v>
+      </c>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="16">
+        <f>(Instagram!G4-Instagram!G5)/Instagram!G5</f>
+        <v>1.1243498778018709E-3</v>
+      </c>
+      <c r="C4" s="10">
+        <v>45915</v>
+      </c>
+      <c r="D4" s="19"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="16">
+        <f>AVERAGE(Instagram!E11:E20)</f>
+        <v>2.7828374650189946E-2</v>
+      </c>
+      <c r="C5" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CFEFA5-869B-4A48-85D0-E4B81BA37CC7}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>45913</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="17">
+        <v>2820773</v>
+      </c>
+      <c r="D2" s="17">
+        <v>19100</v>
+      </c>
+      <c r="E2" s="17">
+        <f>InstagramData_Stats!$B$2</f>
+        <v>84601628</v>
+      </c>
+      <c r="F2" s="18">
+        <f>SUM(C2:D2)/E2</f>
+        <v>3.3567592812752962E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>45913</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="17">
+        <v>523972</v>
+      </c>
+      <c r="D3" s="9">
+        <v>9452</v>
+      </c>
+      <c r="E3" s="17">
+        <f>InstagramData_Stats!$B$2</f>
+        <v>84601628</v>
+      </c>
+      <c r="F3" s="18">
+        <f t="shared" ref="F3:F11" si="0">SUM(C3:D3)/E3</f>
+        <v>6.3051268942484178E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>45913</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="17">
+        <v>1846891</v>
+      </c>
+      <c r="D4" s="9">
+        <v>17400</v>
+      </c>
+      <c r="E4" s="17">
+        <f>InstagramData_Stats!$B$2</f>
+        <v>84601628</v>
+      </c>
+      <c r="F4" s="18">
+        <f t="shared" si="0"/>
+        <v>2.2036112591119403E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>45909</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="17">
+        <v>2368106</v>
+      </c>
+      <c r="D5" s="9">
+        <v>29000</v>
+      </c>
+      <c r="E5" s="17">
+        <f>InstagramData_Stats!$B$2</f>
+        <v>84601628</v>
+      </c>
+      <c r="F5" s="18">
+        <f t="shared" si="0"/>
+        <v>2.8334041042330768E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>45908</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="17">
+        <v>3298882</v>
+      </c>
+      <c r="D6" s="9">
+        <v>20600</v>
+      </c>
+      <c r="E6" s="17">
+        <f>InstagramData_Stats!$B$2</f>
+        <v>84601628</v>
+      </c>
+      <c r="F6" s="18">
+        <f t="shared" si="0"/>
+        <v>3.9236620836658131E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>45900</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="17">
+        <v>2994676</v>
+      </c>
+      <c r="D7" s="9">
+        <v>22200</v>
+      </c>
+      <c r="E7" s="17">
+        <f>InstagramData_Stats!$B$2</f>
+        <v>84601628</v>
+      </c>
+      <c r="F7" s="18">
+        <f t="shared" si="0"/>
+        <v>3.5659786594177595E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>45895</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="17">
+        <v>1358522</v>
+      </c>
+      <c r="D8" s="9">
+        <v>10600</v>
+      </c>
+      <c r="E8" s="17">
+        <f>InstagramData_Stats!$B$2</f>
+        <v>84601628</v>
+      </c>
+      <c r="F8" s="18">
+        <f t="shared" si="0"/>
+        <v>1.6183163756612343E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>45893</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="17">
+        <v>2503437</v>
+      </c>
+      <c r="D9" s="9">
+        <v>12400</v>
+      </c>
+      <c r="E9" s="17">
+        <f>InstagramData_Stats!$B$2</f>
+        <v>84601628</v>
+      </c>
+      <c r="F9" s="18">
+        <f t="shared" si="0"/>
+        <v>2.9737453752072006E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>45887</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="17">
+        <v>1714256</v>
+      </c>
+      <c r="D10" s="9">
+        <v>11000</v>
+      </c>
+      <c r="E10" s="17">
+        <f>InstagramData_Stats!$B$2</f>
+        <v>84601628</v>
+      </c>
+      <c r="F10" s="18">
+        <f t="shared" si="0"/>
+        <v>2.0392704499729013E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>45880</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="17">
+        <v>3941591</v>
+      </c>
+      <c r="D11" s="9">
+        <v>20400</v>
+      </c>
+      <c r="E11" s="17">
+        <f>InstagramData_Stats!$B$2</f>
+        <v>84601628</v>
+      </c>
+      <c r="F11" s="18">
+        <f t="shared" si="0"/>
+        <v>4.683114372219882E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96576ABB-1045-4149-89A4-CFB68122A475}">
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3336,20 +2860,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E2" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="E2" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
@@ -3376,7 +2900,7 @@
         <v>45915</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3384,18 +2908,18 @@
         <v>35</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C6" s="10">
         <v>45915</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B7" s="11">
         <f>AVERAGE(G12:G21)</f>
@@ -3405,50 +2929,50 @@
         <v>45915</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+        <v>83</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="D9" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
+      <c r="D9" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="F11" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>6</v>
@@ -3459,10 +2983,10 @@
         <v>45908</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D12" s="9">
         <v>56492</v>
@@ -3478,7 +3002,7 @@
         <v>0.64609664098392894</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
@@ -3486,10 +3010,10 @@
         <v>45908</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D13" s="9">
         <v>96866</v>
@@ -3505,7 +3029,7 @@
         <v>1.1575555515829743</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13" s="4"/>
     </row>
@@ -3514,10 +3038,10 @@
         <v>45908</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D14" s="9">
         <v>15909</v>
@@ -3533,7 +3057,7 @@
         <v>0.21510931550438872</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3541,10 +3065,10 @@
         <v>45908</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D15" s="9">
         <v>19450</v>
@@ -3560,7 +3084,7 @@
         <v>0.25851373817908796</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -3568,10 +3092,10 @@
         <v>45908</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D16" s="9">
         <v>14832</v>
@@ -3587,7 +3111,7 @@
         <v>0.17081106204973273</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -3595,10 +3119,10 @@
         <v>45906</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D17" s="9">
         <v>11193</v>
@@ -3614,7 +3138,7 @@
         <v>0.13768569334453601</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -3622,10 +3146,10 @@
         <v>45906</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D18" s="9">
         <v>6904</v>
@@ -3641,7 +3165,7 @@
         <v>9.080426893580508E-2</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -3649,10 +3173,10 @@
         <v>45905</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D19" s="9">
         <v>7696</v>
@@ -3668,7 +3192,7 @@
         <v>9.1188616171186468E-2</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -3676,10 +3200,10 @@
         <v>45901</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D20" s="9">
         <v>7713</v>
@@ -3695,7 +3219,7 @@
         <v>9.2413164339727197E-2</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -3703,10 +3227,10 @@
         <v>45897</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D21" s="9">
         <v>10520</v>
@@ -3722,16 +3246,16 @@
         <v>0.12552065642932481</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
+      <c r="A23" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3744,12 +3268,408 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5B1BD2-767A-46E8-A585-2C34077E3989}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="9">
+        <v>111878</v>
+      </c>
+      <c r="C2" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="11">
+        <f>AVERAGE(Twitter_X!G12:G21)</f>
+        <v>0.2985698707520692</v>
+      </c>
+      <c r="C4" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF58C9D7-C19E-4761-9787-2A373F487714}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>45908</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="9">
+        <v>56492</v>
+      </c>
+      <c r="E2" s="9">
+        <v>15555</v>
+      </c>
+      <c r="F2" s="9">
+        <v>237</v>
+      </c>
+      <c r="G2" s="9">
+        <f>TwitterData_Stats!$B$2</f>
+        <v>111878</v>
+      </c>
+      <c r="H2" s="11">
+        <f>SUM(D2:F2)/G2</f>
+        <v>0.64609664098392894</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>45908</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="9">
+        <v>96866</v>
+      </c>
+      <c r="E3" s="9">
+        <v>31775</v>
+      </c>
+      <c r="F3" s="9">
+        <v>864</v>
+      </c>
+      <c r="G3" s="9">
+        <f>TwitterData_Stats!$B$2</f>
+        <v>111878</v>
+      </c>
+      <c r="H3" s="11">
+        <f t="shared" ref="H3:H11" si="0">SUM(D3:F3)/G3</f>
+        <v>1.1575555515829743</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>45908</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="9">
+        <v>15909</v>
+      </c>
+      <c r="E4" s="9">
+        <v>7902</v>
+      </c>
+      <c r="F4" s="9">
+        <v>255</v>
+      </c>
+      <c r="G4" s="9">
+        <f>TwitterData_Stats!$B$2</f>
+        <v>111878</v>
+      </c>
+      <c r="H4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.21510931550438872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>45908</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="9">
+        <v>19450</v>
+      </c>
+      <c r="E5" s="9">
+        <v>9268</v>
+      </c>
+      <c r="F5" s="9">
+        <v>204</v>
+      </c>
+      <c r="G5" s="9">
+        <f>TwitterData_Stats!$B$2</f>
+        <v>111878</v>
+      </c>
+      <c r="H5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.25851373817908796</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>45908</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="9">
+        <v>14832</v>
+      </c>
+      <c r="E6" s="9">
+        <v>4009</v>
+      </c>
+      <c r="F6" s="9">
+        <v>269</v>
+      </c>
+      <c r="G6" s="9">
+        <f>TwitterData_Stats!$B$2</f>
+        <v>111878</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.17081106204973273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>45906</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="9">
+        <v>11193</v>
+      </c>
+      <c r="E7" s="9">
+        <v>3994</v>
+      </c>
+      <c r="F7" s="9">
+        <v>217</v>
+      </c>
+      <c r="G7" s="9">
+        <f>TwitterData_Stats!$B$2</f>
+        <v>111878</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.13768569334453601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>45906</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="9">
+        <v>6904</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2923</v>
+      </c>
+      <c r="F8" s="9">
+        <v>332</v>
+      </c>
+      <c r="G8" s="9">
+        <f>TwitterData_Stats!$B$2</f>
+        <v>111878</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="0"/>
+        <v>9.080426893580508E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>45905</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="9">
+        <v>7696</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2332</v>
+      </c>
+      <c r="F9" s="9">
+        <v>174</v>
+      </c>
+      <c r="G9" s="9">
+        <f>TwitterData_Stats!$B$2</f>
+        <v>111878</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="0"/>
+        <v>9.1188616171186468E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>45901</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="9">
+        <v>7713</v>
+      </c>
+      <c r="E10" s="9">
+        <v>2528</v>
+      </c>
+      <c r="F10" s="9">
+        <v>98</v>
+      </c>
+      <c r="G10" s="9">
+        <f>TwitterData_Stats!$B$2</f>
+        <v>111878</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="0"/>
+        <v>9.2413164339727197E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>45897</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="9">
+        <v>10520</v>
+      </c>
+      <c r="E11" s="9">
+        <v>3351</v>
+      </c>
+      <c r="F11" s="9">
+        <v>172</v>
+      </c>
+      <c r="G11" s="9">
+        <f>TwitterData_Stats!$B$2</f>
+        <v>111878</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="0"/>
+        <v>0.12552065642932481</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00D7A9F-20B8-4F57-A14E-BB573AD9F3F7}">
   <dimension ref="A1:K137"/>
   <sheetViews>
     <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3762,35 +3682,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="B1" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C1" s="35"/>
+      <c r="B1" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="41"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="D4" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>6</v>
@@ -3800,13 +3720,13 @@
       <c r="A5" s="10">
         <v>45550</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="21">
         <v>28</v>
       </c>
       <c r="C5" s="8">
         <v>9</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <f>AVERAGE(B5:C5)</f>
         <v>18.5</v>
       </c>
@@ -3815,13 +3735,13 @@
       <c r="A6" s="10">
         <v>45557</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="21">
         <v>29</v>
       </c>
       <c r="C6" s="8">
         <v>12</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <f t="shared" ref="D6:D56" si="0">AVERAGE(B6:C6)</f>
         <v>20.5</v>
       </c>
@@ -3830,13 +3750,13 @@
       <c r="A7" s="10">
         <v>45564</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="21">
         <v>35</v>
       </c>
       <c r="C7" s="8">
         <v>16</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <f t="shared" si="0"/>
         <v>25.5</v>
       </c>
@@ -3845,13 +3765,13 @@
       <c r="A8" s="10">
         <v>45571</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="21">
         <v>28</v>
       </c>
       <c r="C8" s="8">
         <v>12</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -3860,13 +3780,13 @@
       <c r="A9" s="10">
         <v>45578</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="21">
         <v>74</v>
       </c>
       <c r="C9" s="8">
         <v>37</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <f t="shared" si="0"/>
         <v>55.5</v>
       </c>
@@ -3875,13 +3795,13 @@
       <c r="A10" s="10">
         <v>45585</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="21">
         <v>100</v>
       </c>
       <c r="C10" s="8">
         <v>92</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
@@ -3890,13 +3810,13 @@
       <c r="A11" s="10">
         <v>45592</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="21">
         <v>70</v>
       </c>
       <c r="C11" s="8">
         <v>71</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="21">
         <f t="shared" si="0"/>
         <v>70.5</v>
       </c>
@@ -3905,13 +3825,13 @@
       <c r="A12" s="10">
         <v>45599</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="21">
         <v>70</v>
       </c>
       <c r="C12" s="8">
         <v>65</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <f t="shared" si="0"/>
         <v>67.5</v>
       </c>
@@ -3920,13 +3840,13 @@
       <c r="A13" s="10">
         <v>45606</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="21">
         <v>59</v>
       </c>
       <c r="C13" s="8">
         <v>57</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
@@ -3935,13 +3855,13 @@
       <c r="A14" s="10">
         <v>45613</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="21">
         <v>66</v>
       </c>
       <c r="C14" s="8">
         <v>70</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
@@ -3950,13 +3870,13 @@
       <c r="A15" s="10">
         <v>45620</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="21">
         <v>82</v>
       </c>
       <c r="C15" s="8">
         <v>93</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
@@ -3965,13 +3885,13 @@
       <c r="A16" s="10">
         <v>45627</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="21">
         <v>85</v>
       </c>
       <c r="C16" s="8">
         <v>100</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <f t="shared" si="0"/>
         <v>92.5</v>
       </c>
@@ -3980,13 +3900,13 @@
       <c r="A17" s="10">
         <v>45634</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="21">
         <v>73</v>
       </c>
       <c r="C17" s="8">
         <v>94</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="21">
         <f t="shared" si="0"/>
         <v>83.5</v>
       </c>
@@ -3995,13 +3915,13 @@
       <c r="A18" s="10">
         <v>45641</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="21">
         <v>61</v>
       </c>
       <c r="C18" s="8">
         <v>74</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="21">
         <f t="shared" si="0"/>
         <v>67.5</v>
       </c>
@@ -4010,13 +3930,13 @@
       <c r="A19" s="10">
         <v>45648</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="21">
         <v>72</v>
       </c>
       <c r="C19" s="8">
         <v>69</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="21">
         <f t="shared" si="0"/>
         <v>70.5</v>
       </c>
@@ -4025,13 +3945,13 @@
       <c r="A20" s="10">
         <v>45655</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="21">
         <v>59</v>
       </c>
       <c r="C20" s="8">
         <v>64</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="21">
         <f t="shared" si="0"/>
         <v>61.5</v>
       </c>
@@ -4040,13 +3960,13 @@
       <c r="A21" s="10">
         <v>45662</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="21">
         <v>57</v>
       </c>
       <c r="C21" s="8">
         <v>58</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="21">
         <f t="shared" si="0"/>
         <v>57.5</v>
       </c>
@@ -4055,13 +3975,13 @@
       <c r="A22" s="10">
         <v>45669</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="21">
         <v>53</v>
       </c>
       <c r="C22" s="8">
         <v>56</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="21">
         <f t="shared" si="0"/>
         <v>54.5</v>
       </c>
@@ -4070,13 +3990,13 @@
       <c r="A23" s="10">
         <v>45676</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="21">
         <v>50</v>
       </c>
       <c r="C23" s="8">
         <v>54</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="21">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
@@ -4085,13 +4005,13 @@
       <c r="A24" s="10">
         <v>45683</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="21">
         <v>58</v>
       </c>
       <c r="C24" s="8">
         <v>55</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="21">
         <f t="shared" si="0"/>
         <v>56.5</v>
       </c>
@@ -4100,13 +4020,13 @@
       <c r="A25" s="10">
         <v>45690</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="21">
         <v>57</v>
       </c>
       <c r="C25" s="8">
         <v>52</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="21">
         <f t="shared" si="0"/>
         <v>54.5</v>
       </c>
@@ -4115,13 +4035,13 @@
       <c r="A26" s="10">
         <v>45697</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="21">
         <v>59</v>
       </c>
       <c r="C26" s="8">
         <v>55</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="21">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
@@ -4130,13 +4050,13 @@
       <c r="A27" s="10">
         <v>45704</v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27" s="21">
         <v>46</v>
       </c>
       <c r="C27" s="8">
         <v>44</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="21">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -4145,13 +4065,13 @@
       <c r="A28" s="10">
         <v>45711</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="21">
         <v>44</v>
       </c>
       <c r="C28" s="8">
         <v>39</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="21">
         <f t="shared" si="0"/>
         <v>41.5</v>
       </c>
@@ -4160,13 +4080,13 @@
       <c r="A29" s="10">
         <v>45718</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29" s="21">
         <v>42</v>
       </c>
       <c r="C29" s="8">
         <v>40</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="21">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -4175,13 +4095,13 @@
       <c r="A30" s="10">
         <v>45725</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="21">
         <v>44</v>
       </c>
       <c r="C30" s="8">
         <v>38</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="21">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -4190,13 +4110,13 @@
       <c r="A31" s="10">
         <v>45732</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31" s="21">
         <v>41</v>
       </c>
       <c r="C31" s="8">
         <v>34</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="21">
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
@@ -4205,13 +4125,13 @@
       <c r="A32" s="10">
         <v>45739</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32" s="21">
         <v>41</v>
       </c>
       <c r="C32" s="8">
         <v>32</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="21">
         <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
@@ -4220,13 +4140,13 @@
       <c r="A33" s="10">
         <v>45746</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33" s="21">
         <v>37</v>
       </c>
       <c r="C33" s="8">
         <v>32</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="21">
         <f t="shared" si="0"/>
         <v>34.5</v>
       </c>
@@ -4235,13 +4155,13 @@
       <c r="A34" s="10">
         <v>45753</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34" s="21">
         <v>36</v>
       </c>
       <c r="C34" s="8">
         <v>30</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="21">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -4250,13 +4170,13 @@
       <c r="A35" s="10">
         <v>45760</v>
       </c>
-      <c r="B35" s="22">
+      <c r="B35" s="21">
         <v>43</v>
       </c>
       <c r="C35" s="8">
         <v>32</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="21">
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
@@ -4265,13 +4185,13 @@
       <c r="A36" s="10">
         <v>45767</v>
       </c>
-      <c r="B36" s="22">
+      <c r="B36" s="21">
         <v>33</v>
       </c>
       <c r="C36" s="8">
         <v>28</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="21">
         <f t="shared" si="0"/>
         <v>30.5</v>
       </c>
@@ -4280,13 +4200,13 @@
       <c r="A37" s="10">
         <v>45774</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B37" s="21">
         <v>40</v>
       </c>
       <c r="C37" s="8">
         <v>29</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="21">
         <f t="shared" si="0"/>
         <v>34.5</v>
       </c>
@@ -4295,13 +4215,13 @@
       <c r="A38" s="10">
         <v>45781</v>
       </c>
-      <c r="B38" s="22">
+      <c r="B38" s="21">
         <v>43</v>
       </c>
       <c r="C38" s="8">
         <v>34</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="21">
         <f t="shared" si="0"/>
         <v>38.5</v>
       </c>
@@ -4310,13 +4230,13 @@
       <c r="A39" s="10">
         <v>45788</v>
       </c>
-      <c r="B39" s="22">
+      <c r="B39" s="21">
         <v>37</v>
       </c>
       <c r="C39" s="8">
         <v>29</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="21">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -4325,13 +4245,13 @@
       <c r="A40" s="10">
         <v>45795</v>
       </c>
-      <c r="B40" s="22">
+      <c r="B40" s="21">
         <v>35</v>
       </c>
       <c r="C40" s="8">
         <v>26</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="21">
         <f t="shared" si="0"/>
         <v>30.5</v>
       </c>
@@ -4340,13 +4260,13 @@
       <c r="A41" s="10">
         <v>45802</v>
       </c>
-      <c r="B41" s="22">
+      <c r="B41" s="21">
         <v>34</v>
       </c>
       <c r="C41" s="8">
         <v>26</v>
       </c>
-      <c r="D41" s="22">
+      <c r="D41" s="21">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -4355,13 +4275,13 @@
       <c r="A42" s="10">
         <v>45809</v>
       </c>
-      <c r="B42" s="22">
+      <c r="B42" s="21">
         <v>31</v>
       </c>
       <c r="C42" s="8">
         <v>25</v>
       </c>
-      <c r="D42" s="22">
+      <c r="D42" s="21">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -4370,13 +4290,13 @@
       <c r="A43" s="10">
         <v>45816</v>
       </c>
-      <c r="B43" s="22">
+      <c r="B43" s="21">
         <v>34</v>
       </c>
       <c r="C43" s="8">
         <v>26</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="21">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -4385,13 +4305,13 @@
       <c r="A44" s="10">
         <v>45823</v>
       </c>
-      <c r="B44" s="22">
+      <c r="B44" s="21">
         <v>36</v>
       </c>
       <c r="C44" s="8">
         <v>25</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D44" s="21">
         <f t="shared" si="0"/>
         <v>30.5</v>
       </c>
@@ -4400,13 +4320,13 @@
       <c r="A45" s="10">
         <v>45830</v>
       </c>
-      <c r="B45" s="22">
+      <c r="B45" s="21">
         <v>39</v>
       </c>
       <c r="C45" s="8">
         <v>26</v>
       </c>
-      <c r="D45" s="22">
+      <c r="D45" s="21">
         <f t="shared" si="0"/>
         <v>32.5</v>
       </c>
@@ -4415,13 +4335,13 @@
       <c r="A46" s="10">
         <v>45837</v>
       </c>
-      <c r="B46" s="22">
+      <c r="B46" s="21">
         <v>39</v>
       </c>
       <c r="C46" s="8">
         <v>25</v>
       </c>
-      <c r="D46" s="22">
+      <c r="D46" s="21">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -4430,13 +4350,13 @@
       <c r="A47" s="10">
         <v>45844</v>
       </c>
-      <c r="B47" s="22">
+      <c r="B47" s="21">
         <v>46</v>
       </c>
       <c r="C47" s="8">
         <v>29</v>
       </c>
-      <c r="D47" s="22">
+      <c r="D47" s="21">
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
@@ -4445,13 +4365,13 @@
       <c r="A48" s="10">
         <v>45851</v>
       </c>
-      <c r="B48" s="22">
+      <c r="B48" s="21">
         <v>62</v>
       </c>
       <c r="C48" s="8">
         <v>33</v>
       </c>
-      <c r="D48" s="22">
+      <c r="D48" s="21">
         <f t="shared" si="0"/>
         <v>47.5</v>
       </c>
@@ -4460,13 +4380,13 @@
       <c r="A49" s="10">
         <v>45858</v>
       </c>
-      <c r="B49" s="22">
+      <c r="B49" s="21">
         <v>68</v>
       </c>
       <c r="C49" s="8">
         <v>31</v>
       </c>
-      <c r="D49" s="22">
+      <c r="D49" s="21">
         <f t="shared" si="0"/>
         <v>49.5</v>
       </c>
@@ -4475,13 +4395,13 @@
       <c r="A50" s="10">
         <v>45865</v>
       </c>
-      <c r="B50" s="22">
+      <c r="B50" s="21">
         <v>81</v>
       </c>
       <c r="C50" s="8">
         <v>30</v>
       </c>
-      <c r="D50" s="22">
+      <c r="D50" s="21">
         <f t="shared" si="0"/>
         <v>55.5</v>
       </c>
@@ -4490,13 +4410,13 @@
       <c r="A51" s="10">
         <v>45872</v>
       </c>
-      <c r="B51" s="22">
+      <c r="B51" s="21">
         <v>87</v>
       </c>
       <c r="C51" s="8">
         <v>29</v>
       </c>
-      <c r="D51" s="22">
+      <c r="D51" s="21">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
@@ -4505,13 +4425,13 @@
       <c r="A52" s="10">
         <v>45879</v>
       </c>
-      <c r="B52" s="22">
+      <c r="B52" s="21">
         <v>84</v>
       </c>
       <c r="C52" s="8">
         <v>28</v>
       </c>
-      <c r="D52" s="22">
+      <c r="D52" s="21">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
@@ -4520,13 +4440,13 @@
       <c r="A53" s="10">
         <v>45886</v>
       </c>
-      <c r="B53" s="22">
+      <c r="B53" s="21">
         <v>85</v>
       </c>
       <c r="C53" s="8">
         <v>27</v>
       </c>
-      <c r="D53" s="22">
+      <c r="D53" s="21">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
@@ -4535,13 +4455,13 @@
       <c r="A54" s="10">
         <v>45893</v>
       </c>
-      <c r="B54" s="22">
+      <c r="B54" s="21">
         <v>61</v>
       </c>
       <c r="C54" s="8">
         <v>28</v>
       </c>
-      <c r="D54" s="22">
+      <c r="D54" s="21">
         <f t="shared" si="0"/>
         <v>44.5</v>
       </c>
@@ -4550,13 +4470,13 @@
       <c r="A55" s="10">
         <v>45900</v>
       </c>
-      <c r="B55" s="22">
+      <c r="B55" s="21">
         <v>39</v>
       </c>
       <c r="C55" s="8">
         <v>23</v>
       </c>
-      <c r="D55" s="22">
+      <c r="D55" s="21">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
@@ -4565,13 +4485,13 @@
       <c r="A56" s="10">
         <v>45907</v>
       </c>
-      <c r="B56" s="22">
+      <c r="B56" s="21">
         <v>44</v>
       </c>
       <c r="C56" s="8">
         <v>33</v>
       </c>
-      <c r="D56" s="22">
+      <c r="D56" s="21">
         <f t="shared" si="0"/>
         <v>38.5</v>
       </c>
@@ -4580,67 +4500,67 @@
       <c r="A57" s="10">
         <v>45914</v>
       </c>
-      <c r="B57" s="22">
+      <c r="B57" s="21">
         <v>36</v>
       </c>
       <c r="C57" s="8">
         <v>25</v>
       </c>
-      <c r="D57" s="22">
+      <c r="D57" s="21">
         <f>AVERAGE(B57:C57)</f>
         <v>30.5</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="B59" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="C59" s="35"/>
+      <c r="B59" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="41"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="23"/>
+      <c r="F59" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="C60" s="37"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="23"/>
+      <c r="B60" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="43"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22"/>
     </row>
     <row r="62" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B62" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="C62" s="38"/>
+      <c r="B62" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="44"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>6</v>
@@ -4648,563 +4568,563 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B65" s="26">
+        <v>112</v>
+      </c>
+      <c r="B65" s="25">
         <v>100</v>
       </c>
-      <c r="C65" s="26" t="s">
+      <c r="C65" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D65" s="26">
+      <c r="D65" s="25">
         <f>AVERAGE(B65:C65) + ROW()/100000</f>
         <v>100.00064999999999</v>
       </c>
-      <c r="E65" s="24"/>
+      <c r="E65" s="23"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B66" s="26">
+        <v>130</v>
+      </c>
+      <c r="B66" s="25">
         <v>59</v>
       </c>
-      <c r="C66" s="26" t="s">
+      <c r="C66" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D66" s="26">
+      <c r="D66" s="25">
         <f t="shared" ref="D66:D96" si="1">AVERAGE(B66:C66) + ROW()/100000</f>
         <v>59.000660000000003</v>
       </c>
-      <c r="E66" s="24"/>
+      <c r="E66" s="23"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B67" s="26">
+        <v>113</v>
+      </c>
+      <c r="B67" s="25">
         <v>27</v>
       </c>
-      <c r="C67" s="26" t="s">
+      <c r="C67" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="26">
+      <c r="D67" s="25">
         <f t="shared" si="1"/>
         <v>27.00067</v>
       </c>
-      <c r="E67" s="24"/>
+      <c r="E67" s="23"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B68" s="26">
+        <v>114</v>
+      </c>
+      <c r="B68" s="25">
         <v>22</v>
       </c>
-      <c r="C68" s="26">
+      <c r="C68" s="25">
         <v>62</v>
       </c>
-      <c r="D68" s="26">
+      <c r="D68" s="25">
         <f t="shared" si="1"/>
         <v>42.000680000000003</v>
       </c>
-      <c r="E68" s="24"/>
+      <c r="E68" s="23"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B69" s="26">
+        <v>115</v>
+      </c>
+      <c r="B69" s="25">
         <v>22</v>
       </c>
-      <c r="C69" s="26">
+      <c r="C69" s="25">
         <v>56</v>
       </c>
-      <c r="D69" s="26">
+      <c r="D69" s="25">
         <f t="shared" si="1"/>
         <v>39.000689999999999</v>
       </c>
-      <c r="E69" s="24"/>
+      <c r="E69" s="23"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B70" s="26">
+        <v>116</v>
+      </c>
+      <c r="B70" s="25">
         <v>17</v>
       </c>
-      <c r="C70" s="26">
+      <c r="C70" s="25">
         <v>25</v>
       </c>
-      <c r="D70" s="26">
+      <c r="D70" s="25">
         <f t="shared" si="1"/>
         <v>21.000699999999998</v>
       </c>
-      <c r="E70" s="24"/>
+      <c r="E70" s="23"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B71" s="26">
+        <v>117</v>
+      </c>
+      <c r="B71" s="25">
         <v>15</v>
       </c>
-      <c r="C71" s="26">
+      <c r="C71" s="25">
         <v>30</v>
       </c>
-      <c r="D71" s="26">
+      <c r="D71" s="25">
         <f t="shared" si="1"/>
         <v>22.500710000000002</v>
       </c>
-      <c r="E71" s="24"/>
+      <c r="E71" s="23"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B72" s="26">
+        <v>118</v>
+      </c>
+      <c r="B72" s="25">
         <v>13</v>
       </c>
-      <c r="C72" s="26">
+      <c r="C72" s="25">
         <v>47</v>
       </c>
-      <c r="D72" s="26">
+      <c r="D72" s="25">
         <f t="shared" si="1"/>
         <v>30.000720000000001</v>
       </c>
-      <c r="E72" s="24"/>
+      <c r="E72" s="23"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B73" s="26">
+        <v>119</v>
+      </c>
+      <c r="B73" s="25">
         <v>12</v>
       </c>
-      <c r="C73" s="26" t="s">
+      <c r="C73" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D73" s="26">
+      <c r="D73" s="25">
         <f t="shared" si="1"/>
         <v>12.000730000000001</v>
       </c>
-      <c r="E73" s="24"/>
+      <c r="E73" s="23"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B74" s="26">
+        <v>120</v>
+      </c>
+      <c r="B74" s="25">
         <v>11</v>
       </c>
-      <c r="C74" s="26">
+      <c r="C74" s="25">
         <v>37</v>
       </c>
-      <c r="D74" s="26">
+      <c r="D74" s="25">
         <f t="shared" si="1"/>
         <v>24.00074</v>
       </c>
-      <c r="E74" s="24"/>
+      <c r="E74" s="23"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B75" s="26">
+        <v>121</v>
+      </c>
+      <c r="B75" s="25">
         <v>11</v>
       </c>
-      <c r="C75" s="26" t="s">
+      <c r="C75" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="26">
+      <c r="D75" s="25">
         <f t="shared" si="1"/>
         <v>11.00075</v>
       </c>
-      <c r="E75" s="24"/>
+      <c r="E75" s="23"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B76" s="26">
+        <v>122</v>
+      </c>
+      <c r="B76" s="25">
         <v>11</v>
       </c>
-      <c r="C76" s="26">
+      <c r="C76" s="25">
         <v>29</v>
       </c>
-      <c r="D76" s="26">
+      <c r="D76" s="25">
         <f t="shared" si="1"/>
         <v>20.00076</v>
       </c>
-      <c r="E76" s="24"/>
+      <c r="E76" s="23"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B77" s="26">
+        <v>131</v>
+      </c>
+      <c r="B77" s="25">
         <v>10</v>
       </c>
-      <c r="C77" s="26" t="s">
+      <c r="C77" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="26">
+      <c r="D77" s="25">
         <f t="shared" si="1"/>
         <v>10.000769999999999</v>
       </c>
-      <c r="E77" s="24"/>
+      <c r="E77" s="23"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B78" s="26">
+        <v>123</v>
+      </c>
+      <c r="B78" s="25">
         <v>10</v>
       </c>
-      <c r="C78" s="26" t="s">
+      <c r="C78" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D78" s="26">
+      <c r="D78" s="25">
         <f t="shared" si="1"/>
         <v>10.000780000000001</v>
       </c>
-      <c r="E78" s="24"/>
+      <c r="E78" s="23"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B79" s="26">
+        <v>124</v>
+      </c>
+      <c r="B79" s="25">
         <v>10</v>
       </c>
-      <c r="C79" s="26">
+      <c r="C79" s="25">
         <v>31</v>
       </c>
-      <c r="D79" s="26">
+      <c r="D79" s="25">
         <f t="shared" si="1"/>
         <v>20.500789999999999</v>
       </c>
-      <c r="E79" s="24"/>
+      <c r="E79" s="23"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B80" s="26">
+        <v>125</v>
+      </c>
+      <c r="B80" s="25">
         <v>10</v>
       </c>
-      <c r="C80" s="26" t="s">
+      <c r="C80" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D80" s="26">
+      <c r="D80" s="25">
         <f t="shared" si="1"/>
         <v>10.0008</v>
       </c>
-      <c r="E80" s="24"/>
+      <c r="E80" s="23"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B81" s="26">
+        <v>126</v>
+      </c>
+      <c r="B81" s="25">
         <v>10</v>
       </c>
-      <c r="C81" s="26" t="s">
+      <c r="C81" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="26">
+      <c r="D81" s="25">
         <f t="shared" si="1"/>
         <v>10.00081</v>
       </c>
-      <c r="E81" s="24"/>
+      <c r="E81" s="23"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B82" s="26">
+        <v>127</v>
+      </c>
+      <c r="B82" s="25">
         <v>10</v>
       </c>
-      <c r="C82" s="26" t="s">
+      <c r="C82" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="26">
+      <c r="D82" s="25">
         <f t="shared" si="1"/>
         <v>10.000819999999999</v>
       </c>
-      <c r="E82" s="24"/>
+      <c r="E82" s="23"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B83" s="26">
+        <v>128</v>
+      </c>
+      <c r="B83" s="25">
         <v>9</v>
       </c>
-      <c r="C83" s="26" t="s">
+      <c r="C83" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="26">
+      <c r="D83" s="25">
         <f t="shared" si="1"/>
         <v>9.0008300000000006</v>
       </c>
-      <c r="E83" s="24"/>
+      <c r="E83" s="23"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B84" s="26">
+        <v>129</v>
+      </c>
+      <c r="B84" s="25">
         <v>8</v>
       </c>
-      <c r="C84" s="26" t="s">
+      <c r="C84" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="26">
+      <c r="D84" s="25">
         <f t="shared" si="1"/>
         <v>8.0008400000000002</v>
       </c>
-      <c r="E84" s="24"/>
+      <c r="E84" s="23"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B85" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B85" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C85" s="26">
+      <c r="C85" s="25">
         <f>IFERROR(VLOOKUP(A85, [1]Sheet2!A:B,2, FALSE), "-")</f>
         <v>100</v>
       </c>
-      <c r="D85" s="26">
+      <c r="D85" s="25">
         <f t="shared" si="1"/>
         <v>100.00085</v>
       </c>
-      <c r="E85" s="24"/>
+      <c r="E85" s="23"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B86" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B86" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C86" s="26">
+      <c r="C86" s="25">
         <f>IFERROR(VLOOKUP(A86, [1]Sheet2!A:B,2, FALSE), "-")</f>
         <v>48</v>
       </c>
-      <c r="D86" s="26">
+      <c r="D86" s="25">
         <f t="shared" si="1"/>
         <v>48.000860000000003</v>
       </c>
-      <c r="E86" s="24"/>
+      <c r="E86" s="23"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B87" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B87" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C87" s="26">
+      <c r="C87" s="25">
         <f>IFERROR(VLOOKUP(A87, [1]Sheet2!A:B,2, FALSE), "-")</f>
         <v>37</v>
       </c>
-      <c r="D87" s="26">
+      <c r="D87" s="25">
         <f t="shared" si="1"/>
         <v>37.000869999999999</v>
       </c>
-      <c r="E87" s="24"/>
+      <c r="E87" s="23"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B88" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B88" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C88" s="26">
+      <c r="C88" s="25">
         <f>IFERROR(VLOOKUP(A88, [1]Sheet2!A:B,2, FALSE), "-")</f>
         <v>29</v>
       </c>
-      <c r="D88" s="26">
+      <c r="D88" s="25">
         <f t="shared" si="1"/>
         <v>29.000879999999999</v>
       </c>
-      <c r="E88" s="24"/>
+      <c r="E88" s="23"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B89" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B89" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C89" s="26">
+      <c r="C89" s="25">
         <f>IFERROR(VLOOKUP(A89, [1]Sheet2!A:B,2, FALSE), "-")</f>
         <v>26</v>
       </c>
-      <c r="D89" s="26">
+      <c r="D89" s="25">
         <f t="shared" si="1"/>
         <v>26.000889999999998</v>
       </c>
-      <c r="E89" s="24"/>
+      <c r="E89" s="23"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B90" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B90" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C90" s="26">
+      <c r="C90" s="25">
         <f>IFERROR(VLOOKUP(A90, [1]Sheet2!A:B,2, FALSE), "-")</f>
         <v>23</v>
       </c>
-      <c r="D90" s="26">
+      <c r="D90" s="25">
         <f t="shared" si="1"/>
         <v>23.000900000000001</v>
       </c>
-      <c r="E90" s="24"/>
+      <c r="E90" s="23"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B91" s="26" t="s">
+      <c r="B91" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C91" s="26">
+      <c r="C91" s="25">
         <f>IFERROR(VLOOKUP(A91, [1]Sheet2!A:B,2, FALSE), "-")</f>
         <v>22</v>
       </c>
-      <c r="D91" s="26">
+      <c r="D91" s="25">
         <f t="shared" si="1"/>
         <v>22.000910000000001</v>
       </c>
-      <c r="E91" s="24"/>
+      <c r="E91" s="23"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B92" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="B92" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C92" s="26">
+      <c r="C92" s="25">
         <f>IFERROR(VLOOKUP(A92, [1]Sheet2!A:B,2, FALSE), "-")</f>
         <v>22</v>
       </c>
-      <c r="D92" s="26">
+      <c r="D92" s="25">
         <f t="shared" si="1"/>
         <v>22.000920000000001</v>
       </c>
-      <c r="E92" s="24"/>
+      <c r="E92" s="23"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B93" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B93" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C93" s="26">
+      <c r="C93" s="25">
         <f>IFERROR(VLOOKUP(A93, [1]Sheet2!A:B,2, FALSE), "-")</f>
         <v>20</v>
       </c>
-      <c r="D93" s="26">
+      <c r="D93" s="25">
         <f t="shared" si="1"/>
         <v>20.00093</v>
       </c>
-      <c r="E93" s="24"/>
+      <c r="E93" s="23"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B94" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B94" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C94" s="26">
+      <c r="C94" s="25">
         <f>IFERROR(VLOOKUP(A94, [1]Sheet2!A:B,2, FALSE), "-")</f>
         <v>18</v>
       </c>
-      <c r="D94" s="26">
+      <c r="D94" s="25">
         <f t="shared" si="1"/>
         <v>18.00094</v>
       </c>
-      <c r="E94" s="24"/>
+      <c r="E94" s="23"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B95" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B95" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C95" s="26">
+      <c r="C95" s="25">
         <f>IFERROR(VLOOKUP(A95, [1]Sheet2!A:B,2, FALSE), "-")</f>
         <v>18</v>
       </c>
-      <c r="D95" s="26">
+      <c r="D95" s="25">
         <f t="shared" si="1"/>
         <v>18.00095</v>
       </c>
-      <c r="E95" s="24"/>
+      <c r="E95" s="23"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B96" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B96" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C96" s="26">
+      <c r="C96" s="25">
         <f>IFERROR(VLOOKUP(A96, [1]Sheet2!A:B,2, FALSE), "-")</f>
         <v>17</v>
       </c>
-      <c r="D96" s="26">
+      <c r="D96" s="25">
         <f t="shared" si="1"/>
         <v>17.000959999999999</v>
       </c>
-      <c r="E96" s="24"/>
+      <c r="E96" s="23"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="20"/>
-      <c r="B97" s="20"/>
-      <c r="C97" s="20"/>
-      <c r="D97" s="20"/>
+      <c r="A97" s="19"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
     </row>
     <row r="98" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="20"/>
-      <c r="B98" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="C98" s="38"/>
-      <c r="D98" s="20"/>
-      <c r="F98" s="28" t="s">
-        <v>155</v>
+      <c r="A98" s="19"/>
+      <c r="B98" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="C98" s="44"/>
+      <c r="D98" s="19"/>
+      <c r="F98" s="27" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="20"/>
-      <c r="B99" s="20"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="20"/>
+      <c r="A99" s="19"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D100" s="29" t="s">
-        <v>156</v>
+        <v>148</v>
+      </c>
+      <c r="D100" s="28" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -5216,14 +5136,14 @@
         <f>INDEX($A$65:$A$96, MATCH(LARGE($D$65:$D$96, ROW(A1)), $D$65:$D$96, 0))</f>
         <v>Turkmenistan</v>
       </c>
-      <c r="C101" s="25">
+      <c r="C101" s="24">
         <f>LARGE($D$65:$D$96, ROW(A1))</f>
         <v>100.00085</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
-      <c r="F101" s="27"/>
+      <c r="F101" s="26"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
@@ -5234,14 +5154,14 @@
         <f t="shared" ref="B102:B132" si="3">INDEX($A$65:$A$96, MATCH(LARGE($D$65:$D$96, ROW(A2)), $D$65:$D$96, 0))</f>
         <v>Madagascar</v>
       </c>
-      <c r="C102" s="25">
+      <c r="C102" s="24">
         <f t="shared" ref="C102:C132" si="4">LARGE($D$65:$D$96, ROW(A2))</f>
         <v>100.00064999999999</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
-      <c r="F102" s="27"/>
+      <c r="F102" s="26"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
@@ -5252,14 +5172,14 @@
         <f t="shared" si="3"/>
         <v>Republic of the Congo</v>
       </c>
-      <c r="C103" s="25">
+      <c r="C103" s="24">
         <f t="shared" si="4"/>
         <v>59.000660000000003</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
-      <c r="F103" s="27"/>
+      <c r="F103" s="26"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="8">
@@ -5270,7 +5190,7 @@
         <f t="shared" si="3"/>
         <v>South Korea</v>
       </c>
-      <c r="C104" s="25">
+      <c r="C104" s="24">
         <f t="shared" si="4"/>
         <v>48.000860000000003</v>
       </c>
@@ -5287,7 +5207,7 @@
         <f t="shared" si="3"/>
         <v>Mongolia</v>
       </c>
-      <c r="C105" s="25">
+      <c r="C105" s="24">
         <f t="shared" si="4"/>
         <v>42.000680000000003</v>
       </c>
@@ -5304,7 +5224,7 @@
         <f t="shared" si="3"/>
         <v>Myanmar (Burma)</v>
       </c>
-      <c r="C106" s="25">
+      <c r="C106" s="24">
         <f t="shared" si="4"/>
         <v>39.000689999999999</v>
       </c>
@@ -5321,7 +5241,7 @@
         <f t="shared" si="3"/>
         <v>Taiwan</v>
       </c>
-      <c r="C107" s="25">
+      <c r="C107" s="24">
         <f t="shared" si="4"/>
         <v>37.000869999999999</v>
       </c>
@@ -5338,7 +5258,7 @@
         <f t="shared" si="3"/>
         <v>Hong Kong</v>
       </c>
-      <c r="C108" s="25">
+      <c r="C108" s="24">
         <f t="shared" si="4"/>
         <v>30.000720000000001</v>
       </c>
@@ -5355,7 +5275,7 @@
         <f t="shared" si="3"/>
         <v>Iran</v>
       </c>
-      <c r="C109" s="25">
+      <c r="C109" s="24">
         <f t="shared" si="4"/>
         <v>29.000879999999999</v>
       </c>
@@ -5372,7 +5292,7 @@
         <f t="shared" si="3"/>
         <v>France</v>
       </c>
-      <c r="C110" s="25">
+      <c r="C110" s="24">
         <f t="shared" si="4"/>
         <v>27.00067</v>
       </c>
@@ -5389,7 +5309,7 @@
         <f t="shared" si="3"/>
         <v>Azerbaijan</v>
       </c>
-      <c r="C111" s="25">
+      <c r="C111" s="24">
         <f t="shared" si="4"/>
         <v>26.000889999999998</v>
       </c>
@@ -5406,7 +5326,7 @@
         <f t="shared" si="3"/>
         <v>Singapore</v>
       </c>
-      <c r="C112" s="25">
+      <c r="C112" s="24">
         <f t="shared" si="4"/>
         <v>24.00074</v>
       </c>
@@ -5423,7 +5343,7 @@
         <f t="shared" si="3"/>
         <v>Kyrgyzstan</v>
       </c>
-      <c r="C113" s="25">
+      <c r="C113" s="24">
         <f t="shared" si="4"/>
         <v>23.000900000000001</v>
       </c>
@@ -5440,7 +5360,7 @@
         <f t="shared" si="3"/>
         <v>Cambodia</v>
       </c>
-      <c r="C114" s="25">
+      <c r="C114" s="24">
         <f t="shared" si="4"/>
         <v>22.500710000000002</v>
       </c>
@@ -5457,7 +5377,7 @@
         <f t="shared" si="3"/>
         <v>Uzbekistan</v>
       </c>
-      <c r="C115" s="25">
+      <c r="C115" s="24">
         <f t="shared" si="4"/>
         <v>22.000920000000001</v>
       </c>
@@ -5474,7 +5394,7 @@
         <f t="shared" si="3"/>
         <v>Indonesia</v>
       </c>
-      <c r="C116" s="25">
+      <c r="C116" s="24">
         <f t="shared" si="4"/>
         <v>22.000910000000001</v>
       </c>
@@ -5491,7 +5411,7 @@
         <f t="shared" si="3"/>
         <v>Vietnam</v>
       </c>
-      <c r="C117" s="25">
+      <c r="C117" s="24">
         <f t="shared" si="4"/>
         <v>21.000699999999998</v>
       </c>
@@ -5508,7 +5428,7 @@
         <f t="shared" si="3"/>
         <v>Malaysia</v>
       </c>
-      <c r="C118" s="25">
+      <c r="C118" s="24">
         <f t="shared" si="4"/>
         <v>20.500789999999999</v>
       </c>
@@ -5525,7 +5445,7 @@
         <f t="shared" si="3"/>
         <v>Thailand</v>
       </c>
-      <c r="C119" s="25">
+      <c r="C119" s="24">
         <f t="shared" si="4"/>
         <v>20.00093</v>
       </c>
@@ -5542,7 +5462,7 @@
         <f t="shared" si="3"/>
         <v>Philippines</v>
       </c>
-      <c r="C120" s="25">
+      <c r="C120" s="24">
         <f t="shared" si="4"/>
         <v>20.00076</v>
       </c>
@@ -5559,7 +5479,7 @@
         <f t="shared" si="3"/>
         <v>Sri Lanka</v>
       </c>
-      <c r="C121" s="25">
+      <c r="C121" s="24">
         <f t="shared" si="4"/>
         <v>18.00095</v>
       </c>
@@ -5576,7 +5496,7 @@
         <f t="shared" si="3"/>
         <v>China</v>
       </c>
-      <c r="C122" s="25">
+      <c r="C122" s="24">
         <f t="shared" si="4"/>
         <v>18.00094</v>
       </c>
@@ -5593,7 +5513,7 @@
         <f t="shared" si="3"/>
         <v>Australia</v>
       </c>
-      <c r="C123" s="25">
+      <c r="C123" s="24">
         <f t="shared" si="4"/>
         <v>17.000959999999999</v>
       </c>
@@ -5610,7 +5530,7 @@
         <f t="shared" si="3"/>
         <v>Belgium</v>
       </c>
-      <c r="C124" s="25">
+      <c r="C124" s="24">
         <f t="shared" si="4"/>
         <v>12.000730000000001</v>
       </c>
@@ -5627,7 +5547,7 @@
         <f t="shared" si="3"/>
         <v>Nepal</v>
       </c>
-      <c r="C125" s="25">
+      <c r="C125" s="24">
         <f t="shared" si="4"/>
         <v>11.00075</v>
       </c>
@@ -5644,7 +5564,7 @@
         <f t="shared" si="3"/>
         <v>Slovakia</v>
       </c>
-      <c r="C126" s="25">
+      <c r="C126" s="24">
         <f t="shared" si="4"/>
         <v>10.000819999999999</v>
       </c>
@@ -5661,7 +5581,7 @@
         <f t="shared" si="3"/>
         <v>Brazil</v>
       </c>
-      <c r="C127" s="25">
+      <c r="C127" s="24">
         <f t="shared" si="4"/>
         <v>10.00081</v>
       </c>
@@ -5678,7 +5598,7 @@
         <f t="shared" si="3"/>
         <v>Switzerland</v>
       </c>
-      <c r="C128" s="25">
+      <c r="C128" s="24">
         <f t="shared" si="4"/>
         <v>10.0008</v>
       </c>
@@ -5695,7 +5615,7 @@
         <f t="shared" si="3"/>
         <v>Hungary</v>
       </c>
-      <c r="C129" s="25">
+      <c r="C129" s="24">
         <f t="shared" si="4"/>
         <v>10.000780000000001</v>
       </c>
@@ -5712,7 +5632,7 @@
         <f t="shared" si="3"/>
         <v>Democratic Republic of the Congo (DRC)</v>
       </c>
-      <c r="C130" s="25">
+      <c r="C130" s="24">
         <f t="shared" si="4"/>
         <v>10.000769999999999</v>
       </c>
@@ -5729,7 +5649,7 @@
         <f t="shared" si="3"/>
         <v>Tunisia</v>
       </c>
-      <c r="C131" s="25">
+      <c r="C131" s="24">
         <f t="shared" si="4"/>
         <v>9.0008300000000006</v>
       </c>
@@ -5746,7 +5666,7 @@
         <f t="shared" si="3"/>
         <v>Morocco</v>
       </c>
-      <c r="C132" s="25">
+      <c r="C132" s="24">
         <f t="shared" si="4"/>
         <v>8.0008400000000002</v>
       </c>
@@ -5755,19 +5675,19 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B133" s="20"/>
+      <c r="B133" s="19"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B134" s="20"/>
+      <c r="B134" s="19"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B135" s="20"/>
+      <c r="B135" s="19"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B136" s="20"/>
+      <c r="B136" s="19"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B137" s="20"/>
+      <c r="B137" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5785,4 +5705,3476 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA86730-3D49-4594-85F8-2A1B87FD4262}">
+  <dimension ref="A1:D54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>45550</v>
+      </c>
+      <c r="B2" s="21">
+        <v>28</v>
+      </c>
+      <c r="C2" s="8">
+        <v>9</v>
+      </c>
+      <c r="D2" s="21">
+        <f>AVERAGE(B2:C2)</f>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>45557</v>
+      </c>
+      <c r="B3" s="21">
+        <v>29</v>
+      </c>
+      <c r="C3" s="8">
+        <v>12</v>
+      </c>
+      <c r="D3" s="21">
+        <f t="shared" ref="D3:D53" si="0">AVERAGE(B3:C3)</f>
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>45564</v>
+      </c>
+      <c r="B4" s="21">
+        <v>35</v>
+      </c>
+      <c r="C4" s="8">
+        <v>16</v>
+      </c>
+      <c r="D4" s="21">
+        <f t="shared" si="0"/>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>45571</v>
+      </c>
+      <c r="B5" s="21">
+        <v>28</v>
+      </c>
+      <c r="C5" s="8">
+        <v>12</v>
+      </c>
+      <c r="D5" s="21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>45578</v>
+      </c>
+      <c r="B6" s="21">
+        <v>74</v>
+      </c>
+      <c r="C6" s="8">
+        <v>37</v>
+      </c>
+      <c r="D6" s="21">
+        <f t="shared" si="0"/>
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>45585</v>
+      </c>
+      <c r="B7" s="21">
+        <v>100</v>
+      </c>
+      <c r="C7" s="8">
+        <v>92</v>
+      </c>
+      <c r="D7" s="21">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>45592</v>
+      </c>
+      <c r="B8" s="21">
+        <v>70</v>
+      </c>
+      <c r="C8" s="8">
+        <v>71</v>
+      </c>
+      <c r="D8" s="21">
+        <f t="shared" si="0"/>
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>45599</v>
+      </c>
+      <c r="B9" s="21">
+        <v>70</v>
+      </c>
+      <c r="C9" s="8">
+        <v>65</v>
+      </c>
+      <c r="D9" s="21">
+        <f t="shared" si="0"/>
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>45606</v>
+      </c>
+      <c r="B10" s="21">
+        <v>59</v>
+      </c>
+      <c r="C10" s="8">
+        <v>57</v>
+      </c>
+      <c r="D10" s="21">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>45613</v>
+      </c>
+      <c r="B11" s="21">
+        <v>66</v>
+      </c>
+      <c r="C11" s="8">
+        <v>70</v>
+      </c>
+      <c r="D11" s="21">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>45620</v>
+      </c>
+      <c r="B12" s="21">
+        <v>82</v>
+      </c>
+      <c r="C12" s="8">
+        <v>93</v>
+      </c>
+      <c r="D12" s="21">
+        <f t="shared" si="0"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>45627</v>
+      </c>
+      <c r="B13" s="21">
+        <v>85</v>
+      </c>
+      <c r="C13" s="8">
+        <v>100</v>
+      </c>
+      <c r="D13" s="21">
+        <f t="shared" si="0"/>
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>45634</v>
+      </c>
+      <c r="B14" s="21">
+        <v>73</v>
+      </c>
+      <c r="C14" s="8">
+        <v>94</v>
+      </c>
+      <c r="D14" s="21">
+        <f t="shared" si="0"/>
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>45641</v>
+      </c>
+      <c r="B15" s="21">
+        <v>61</v>
+      </c>
+      <c r="C15" s="8">
+        <v>74</v>
+      </c>
+      <c r="D15" s="21">
+        <f t="shared" si="0"/>
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>45648</v>
+      </c>
+      <c r="B16" s="21">
+        <v>72</v>
+      </c>
+      <c r="C16" s="8">
+        <v>69</v>
+      </c>
+      <c r="D16" s="21">
+        <f t="shared" si="0"/>
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>45655</v>
+      </c>
+      <c r="B17" s="21">
+        <v>59</v>
+      </c>
+      <c r="C17" s="8">
+        <v>64</v>
+      </c>
+      <c r="D17" s="21">
+        <f t="shared" si="0"/>
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <v>45662</v>
+      </c>
+      <c r="B18" s="21">
+        <v>57</v>
+      </c>
+      <c r="C18" s="8">
+        <v>58</v>
+      </c>
+      <c r="D18" s="21">
+        <f t="shared" si="0"/>
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>45669</v>
+      </c>
+      <c r="B19" s="21">
+        <v>53</v>
+      </c>
+      <c r="C19" s="8">
+        <v>56</v>
+      </c>
+      <c r="D19" s="21">
+        <f t="shared" si="0"/>
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>45676</v>
+      </c>
+      <c r="B20" s="21">
+        <v>50</v>
+      </c>
+      <c r="C20" s="8">
+        <v>54</v>
+      </c>
+      <c r="D20" s="21">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
+        <v>45683</v>
+      </c>
+      <c r="B21" s="21">
+        <v>58</v>
+      </c>
+      <c r="C21" s="8">
+        <v>55</v>
+      </c>
+      <c r="D21" s="21">
+        <f t="shared" si="0"/>
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <v>45690</v>
+      </c>
+      <c r="B22" s="21">
+        <v>57</v>
+      </c>
+      <c r="C22" s="8">
+        <v>52</v>
+      </c>
+      <c r="D22" s="21">
+        <f t="shared" si="0"/>
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <v>45697</v>
+      </c>
+      <c r="B23" s="21">
+        <v>59</v>
+      </c>
+      <c r="C23" s="8">
+        <v>55</v>
+      </c>
+      <c r="D23" s="21">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <v>45704</v>
+      </c>
+      <c r="B24" s="21">
+        <v>46</v>
+      </c>
+      <c r="C24" s="8">
+        <v>44</v>
+      </c>
+      <c r="D24" s="21">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
+        <v>45711</v>
+      </c>
+      <c r="B25" s="21">
+        <v>44</v>
+      </c>
+      <c r="C25" s="8">
+        <v>39</v>
+      </c>
+      <c r="D25" s="21">
+        <f t="shared" si="0"/>
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <v>45718</v>
+      </c>
+      <c r="B26" s="21">
+        <v>42</v>
+      </c>
+      <c r="C26" s="8">
+        <v>40</v>
+      </c>
+      <c r="D26" s="21">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
+        <v>45725</v>
+      </c>
+      <c r="B27" s="21">
+        <v>44</v>
+      </c>
+      <c r="C27" s="8">
+        <v>38</v>
+      </c>
+      <c r="D27" s="21">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
+        <v>45732</v>
+      </c>
+      <c r="B28" s="21">
+        <v>41</v>
+      </c>
+      <c r="C28" s="8">
+        <v>34</v>
+      </c>
+      <c r="D28" s="21">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="10">
+        <v>45739</v>
+      </c>
+      <c r="B29" s="21">
+        <v>41</v>
+      </c>
+      <c r="C29" s="8">
+        <v>32</v>
+      </c>
+      <c r="D29" s="21">
+        <f t="shared" si="0"/>
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
+        <v>45746</v>
+      </c>
+      <c r="B30" s="21">
+        <v>37</v>
+      </c>
+      <c r="C30" s="8">
+        <v>32</v>
+      </c>
+      <c r="D30" s="21">
+        <f t="shared" si="0"/>
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <v>45753</v>
+      </c>
+      <c r="B31" s="21">
+        <v>36</v>
+      </c>
+      <c r="C31" s="8">
+        <v>30</v>
+      </c>
+      <c r="D31" s="21">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <v>45760</v>
+      </c>
+      <c r="B32" s="21">
+        <v>43</v>
+      </c>
+      <c r="C32" s="8">
+        <v>32</v>
+      </c>
+      <c r="D32" s="21">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
+        <v>45767</v>
+      </c>
+      <c r="B33" s="21">
+        <v>33</v>
+      </c>
+      <c r="C33" s="8">
+        <v>28</v>
+      </c>
+      <c r="D33" s="21">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
+        <v>45774</v>
+      </c>
+      <c r="B34" s="21">
+        <v>40</v>
+      </c>
+      <c r="C34" s="8">
+        <v>29</v>
+      </c>
+      <c r="D34" s="21">
+        <f t="shared" si="0"/>
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="10">
+        <v>45781</v>
+      </c>
+      <c r="B35" s="21">
+        <v>43</v>
+      </c>
+      <c r="C35" s="8">
+        <v>34</v>
+      </c>
+      <c r="D35" s="21">
+        <f t="shared" si="0"/>
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="10">
+        <v>45788</v>
+      </c>
+      <c r="B36" s="21">
+        <v>37</v>
+      </c>
+      <c r="C36" s="8">
+        <v>29</v>
+      </c>
+      <c r="D36" s="21">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="10">
+        <v>45795</v>
+      </c>
+      <c r="B37" s="21">
+        <v>35</v>
+      </c>
+      <c r="C37" s="8">
+        <v>26</v>
+      </c>
+      <c r="D37" s="21">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="10">
+        <v>45802</v>
+      </c>
+      <c r="B38" s="21">
+        <v>34</v>
+      </c>
+      <c r="C38" s="8">
+        <v>26</v>
+      </c>
+      <c r="D38" s="21">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="10">
+        <v>45809</v>
+      </c>
+      <c r="B39" s="21">
+        <v>31</v>
+      </c>
+      <c r="C39" s="8">
+        <v>25</v>
+      </c>
+      <c r="D39" s="21">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="10">
+        <v>45816</v>
+      </c>
+      <c r="B40" s="21">
+        <v>34</v>
+      </c>
+      <c r="C40" s="8">
+        <v>26</v>
+      </c>
+      <c r="D40" s="21">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="10">
+        <v>45823</v>
+      </c>
+      <c r="B41" s="21">
+        <v>36</v>
+      </c>
+      <c r="C41" s="8">
+        <v>25</v>
+      </c>
+      <c r="D41" s="21">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="10">
+        <v>45830</v>
+      </c>
+      <c r="B42" s="21">
+        <v>39</v>
+      </c>
+      <c r="C42" s="8">
+        <v>26</v>
+      </c>
+      <c r="D42" s="21">
+        <f t="shared" si="0"/>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="10">
+        <v>45837</v>
+      </c>
+      <c r="B43" s="21">
+        <v>39</v>
+      </c>
+      <c r="C43" s="8">
+        <v>25</v>
+      </c>
+      <c r="D43" s="21">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="10">
+        <v>45844</v>
+      </c>
+      <c r="B44" s="21">
+        <v>46</v>
+      </c>
+      <c r="C44" s="8">
+        <v>29</v>
+      </c>
+      <c r="D44" s="21">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="10">
+        <v>45851</v>
+      </c>
+      <c r="B45" s="21">
+        <v>62</v>
+      </c>
+      <c r="C45" s="8">
+        <v>33</v>
+      </c>
+      <c r="D45" s="21">
+        <f t="shared" si="0"/>
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="10">
+        <v>45858</v>
+      </c>
+      <c r="B46" s="21">
+        <v>68</v>
+      </c>
+      <c r="C46" s="8">
+        <v>31</v>
+      </c>
+      <c r="D46" s="21">
+        <f t="shared" si="0"/>
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="10">
+        <v>45865</v>
+      </c>
+      <c r="B47" s="21">
+        <v>81</v>
+      </c>
+      <c r="C47" s="8">
+        <v>30</v>
+      </c>
+      <c r="D47" s="21">
+        <f t="shared" si="0"/>
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="10">
+        <v>45872</v>
+      </c>
+      <c r="B48" s="21">
+        <v>87</v>
+      </c>
+      <c r="C48" s="8">
+        <v>29</v>
+      </c>
+      <c r="D48" s="21">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="10">
+        <v>45879</v>
+      </c>
+      <c r="B49" s="21">
+        <v>84</v>
+      </c>
+      <c r="C49" s="8">
+        <v>28</v>
+      </c>
+      <c r="D49" s="21">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="10">
+        <v>45886</v>
+      </c>
+      <c r="B50" s="21">
+        <v>85</v>
+      </c>
+      <c r="C50" s="8">
+        <v>27</v>
+      </c>
+      <c r="D50" s="21">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="10">
+        <v>45893</v>
+      </c>
+      <c r="B51" s="21">
+        <v>61</v>
+      </c>
+      <c r="C51" s="8">
+        <v>28</v>
+      </c>
+      <c r="D51" s="21">
+        <f t="shared" si="0"/>
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="10">
+        <v>45900</v>
+      </c>
+      <c r="B52" s="21">
+        <v>39</v>
+      </c>
+      <c r="C52" s="8">
+        <v>23</v>
+      </c>
+      <c r="D52" s="21">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="10">
+        <v>45907</v>
+      </c>
+      <c r="B53" s="21">
+        <v>44</v>
+      </c>
+      <c r="C53" s="8">
+        <v>33</v>
+      </c>
+      <c r="D53" s="21">
+        <f t="shared" si="0"/>
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="10">
+        <v>45914</v>
+      </c>
+      <c r="B54" s="21">
+        <v>36</v>
+      </c>
+      <c r="C54" s="8">
+        <v>25</v>
+      </c>
+      <c r="D54" s="21">
+        <f>AVERAGE(B54:C54)</f>
+        <v>30.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179F9F10-530F-4257-B5F4-C178455903C0}">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="23">
+        <f>ROW(A1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="25">
+        <f>'Google Trends'!D85</f>
+        <v>100.00085</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="23">
+        <f t="shared" ref="A3:A33" si="0">ROW(A2)</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="25">
+        <f>'Google Trends'!D65</f>
+        <v>100.00064999999999</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="25">
+        <f>'Google Trends'!D66</f>
+        <v>59.000660000000003</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="25">
+        <f>'Google Trends'!D86</f>
+        <v>48.000860000000003</v>
+      </c>
+      <c r="D5" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="23">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="25">
+        <f>'Google Trends'!D68</f>
+        <v>42.000680000000003</v>
+      </c>
+      <c r="D6" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="25">
+        <f>'Google Trends'!D69</f>
+        <v>39.000689999999999</v>
+      </c>
+      <c r="D7" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="23">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="25">
+        <f>'Google Trends'!D87</f>
+        <v>37.000869999999999</v>
+      </c>
+      <c r="D8" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="23">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="25">
+        <f>'Google Trends'!D72</f>
+        <v>30.000720000000001</v>
+      </c>
+      <c r="D9" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="23">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="25">
+        <f>'Google Trends'!D88</f>
+        <v>29.000879999999999</v>
+      </c>
+      <c r="D10" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="23">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="25">
+        <f>'Google Trends'!D67</f>
+        <v>27.00067</v>
+      </c>
+      <c r="D11" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="23">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="25">
+        <f>'Google Trends'!D89</f>
+        <v>26.000889999999998</v>
+      </c>
+      <c r="D12" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="23">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="25">
+        <f>'Google Trends'!D74</f>
+        <v>24.00074</v>
+      </c>
+      <c r="D13" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="23">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="25">
+        <f>'Google Trends'!D90</f>
+        <v>23.000900000000001</v>
+      </c>
+      <c r="D14" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="23">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="25">
+        <f>'Google Trends'!D71</f>
+        <v>22.500710000000002</v>
+      </c>
+      <c r="D15" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="23">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="25">
+        <f>'Google Trends'!D92</f>
+        <v>22.000920000000001</v>
+      </c>
+      <c r="D16" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="23">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="25">
+        <f>'Google Trends'!D91</f>
+        <v>22.000910000000001</v>
+      </c>
+      <c r="D17" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="23">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="25">
+        <f>'Google Trends'!D70</f>
+        <v>21.000699999999998</v>
+      </c>
+      <c r="D18" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="23">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="25">
+        <f>'Google Trends'!D79</f>
+        <v>20.500789999999999</v>
+      </c>
+      <c r="D19" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="23">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="25">
+        <f>'Google Trends'!D93</f>
+        <v>20.00093</v>
+      </c>
+      <c r="D20" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="25">
+        <f>'Google Trends'!D76</f>
+        <v>20.00076</v>
+      </c>
+      <c r="D21" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="23">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="25">
+        <f>'Google Trends'!D95</f>
+        <v>18.00095</v>
+      </c>
+      <c r="D22" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="25">
+        <f>'Google Trends'!D94</f>
+        <v>18.00094</v>
+      </c>
+      <c r="D23" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="23">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="25">
+        <f>'Google Trends'!D96</f>
+        <v>17.000959999999999</v>
+      </c>
+      <c r="D24" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="23">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="25">
+        <f>'Google Trends'!D73</f>
+        <v>12.000730000000001</v>
+      </c>
+      <c r="D25" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="23">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="25">
+        <f>'Google Trends'!D75</f>
+        <v>11.00075</v>
+      </c>
+      <c r="D26" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="23">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="25">
+        <f>'Google Trends'!D82</f>
+        <v>10.000819999999999</v>
+      </c>
+      <c r="D27" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="23">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="25">
+        <f>'Google Trends'!D81</f>
+        <v>10.00081</v>
+      </c>
+      <c r="D28" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="23">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="25">
+        <f>'Google Trends'!D80</f>
+        <v>10.0008</v>
+      </c>
+      <c r="D29" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="23">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="25">
+        <f>'Google Trends'!D78</f>
+        <v>10.000780000000001</v>
+      </c>
+      <c r="D30" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="23">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="25">
+        <f>'Google Trends'!D77</f>
+        <v>10.000769999999999</v>
+      </c>
+      <c r="D31" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="23">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="25">
+        <f>'Google Trends'!D83</f>
+        <v>9.0008300000000006</v>
+      </c>
+      <c r="D32" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="23">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="25">
+        <f>'Google Trends'!D84</f>
+        <v>8.0008400000000002</v>
+      </c>
+      <c r="D33" s="23">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C33">
+    <sortCondition descending="1" ref="C2:C33"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99222ABA-3DFF-46B1-85CC-008704664EBC}">
+  <dimension ref="A1:K45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="G1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G2" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40">
+        <v>45920</v>
+      </c>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="10">
+        <f>C13</f>
+        <v>45920</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12">
+        <f>Spotify!B4</f>
+        <v>35128393</v>
+      </c>
+      <c r="C13" s="10">
+        <f>Spotify!C4</f>
+        <v>45920</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12">
+        <f>Spotify!B5</f>
+        <v>12945016</v>
+      </c>
+      <c r="C14" s="10">
+        <f>Spotify!C5</f>
+        <v>45920</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="str">
+        <f>Spotify!B6</f>
+        <v>Indonesia</v>
+      </c>
+      <c r="C15" s="10">
+        <f>Spotify!C6</f>
+        <v>45920</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="str">
+        <f>INDEX(Spotify!A11:A27,MATCH(MAX(Spotify!C11:C27),Spotify!C11:C27,0))</f>
+        <v>APT.</v>
+      </c>
+      <c r="C16" s="10">
+        <v>45920</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9">
+        <f>SUM(Spotify!C11:C27)</f>
+        <v>4487351701</v>
+      </c>
+      <c r="C17" s="10">
+        <v>45920</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="9">
+        <f>YouTube!B4</f>
+        <v>3021510674</v>
+      </c>
+      <c r="C22" s="10">
+        <f>YouTube!C4</f>
+        <v>45920</v>
+      </c>
+      <c r="D22" s="8" t="str">
+        <f>YouTube!D4</f>
+        <v>As of 20/9/2025</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="str">
+        <f>YouTube!B5</f>
+        <v>APT.</v>
+      </c>
+      <c r="C23" s="10">
+        <f>YouTube!C5</f>
+        <v>45920</v>
+      </c>
+      <c r="D23" s="8" t="str">
+        <f>YouTube!D5</f>
+        <v>As of 20/9/2025</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9">
+        <f>YouTube!B7</f>
+        <v>19200000</v>
+      </c>
+      <c r="C24" s="10">
+        <f>YouTube!C7</f>
+        <v>45920</v>
+      </c>
+      <c r="D24" s="8" t="str">
+        <f>YouTube!D7</f>
+        <v>As of 20/9/2025</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="15">
+        <f>Instagram!B4</f>
+        <v>84601628</v>
+      </c>
+      <c r="C29" s="10">
+        <v>45915</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="11">
+        <f>Instagram!B5</f>
+        <v>1.1243498778018709E-3</v>
+      </c>
+      <c r="C30" s="10">
+        <v>45915</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="11">
+        <f>Instagram!B6</f>
+        <v>2.7828374650189946E-2</v>
+      </c>
+      <c r="C31" s="10">
+        <v>45915</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="9">
+        <f>Twitter_X!B5</f>
+        <v>111878</v>
+      </c>
+      <c r="C36" s="10">
+        <v>45915</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="8" t="str">
+        <f>Twitter_X!B6</f>
+        <v>N/A</v>
+      </c>
+      <c r="C37" s="10">
+        <v>45915</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="11">
+        <f>Twitter_X!B7</f>
+        <v>0.2985698707520692</v>
+      </c>
+      <c r="C38" s="10">
+        <v>45915</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="8" t="str" cm="1">
+        <f t="array" ref="B43">INDEX('Google Trends'!B101:B132, MATCH(LARGE(IF('Google Trends'!D101:D132=1,'Google Trends'!C101:C132),1),'Google Trends'!C101:C132,0))</f>
+        <v>South Korea</v>
+      </c>
+      <c r="C43" s="10">
+        <v>45916</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="24" cm="1">
+        <f t="array" ref="B44">LARGE(IF('Google Trends'!D101:D132=1, 'Google Trends'!C101:C132),1)</f>
+        <v>48.000860000000003</v>
+      </c>
+      <c r="C44" s="10">
+        <v>45916</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="11">
+        <f>('Google Trends'!D57 - 'Google Trends'!D5)/'Google Trends'!D5</f>
+        <v>0.64864864864864868</v>
+      </c>
+      <c r="C45" s="10">
+        <v>45916</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA47F01-DFB1-497B-A6BB-550548CE327E}">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="D1" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="12">
+        <v>35128393</v>
+      </c>
+      <c r="C4" s="10">
+        <v>45920</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="12">
+        <v>12945016</v>
+      </c>
+      <c r="C5" s="10">
+        <v>45920</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="10">
+        <v>45920</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="C8" s="2"/>
+      <c r="D8" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="12">
+        <v>429228868</v>
+      </c>
+      <c r="D11" s="10">
+        <v>44267</v>
+      </c>
+      <c r="E11" s="30">
+        <v>0.14374999999999999</v>
+      </c>
+      <c r="F11" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="12">
+        <v>550558851</v>
+      </c>
+      <c r="D12" s="10">
+        <v>44267</v>
+      </c>
+      <c r="E12" s="30">
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="F12" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="12">
+        <v>253078600</v>
+      </c>
+      <c r="D13" s="10">
+        <v>44820</v>
+      </c>
+      <c r="E13" s="30">
+        <v>0.1125</v>
+      </c>
+      <c r="F13" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="12">
+        <v>2000246989</v>
+      </c>
+      <c r="D14" s="10">
+        <v>45632</v>
+      </c>
+      <c r="E14" s="30">
+        <v>0.11736111111111111</v>
+      </c>
+      <c r="F14" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="12">
+        <v>322047684</v>
+      </c>
+      <c r="D15" s="10">
+        <v>45632</v>
+      </c>
+      <c r="E15" s="30">
+        <v>0.10833333333333334</v>
+      </c>
+      <c r="F15" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="12">
+        <v>251175060</v>
+      </c>
+      <c r="D16" s="10">
+        <v>45632</v>
+      </c>
+      <c r="E16" s="30">
+        <v>0.15</v>
+      </c>
+      <c r="F16" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="12">
+        <v>40081478</v>
+      </c>
+      <c r="D17" s="10">
+        <v>45632</v>
+      </c>
+      <c r="E17" s="30">
+        <v>0.16388888888888889</v>
+      </c>
+      <c r="F17" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="12">
+        <v>70989383</v>
+      </c>
+      <c r="D18" s="10">
+        <v>45632</v>
+      </c>
+      <c r="E18" s="30">
+        <v>0.17083333333333334</v>
+      </c>
+      <c r="F18" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="12">
+        <v>39338067</v>
+      </c>
+      <c r="D19" s="10">
+        <v>45632</v>
+      </c>
+      <c r="E19" s="30">
+        <v>0.14861111111111111</v>
+      </c>
+      <c r="F19" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="12">
+        <v>101679472</v>
+      </c>
+      <c r="D20" s="10">
+        <v>45632</v>
+      </c>
+      <c r="E20" s="30">
+        <v>9.2361111111111116E-2</v>
+      </c>
+      <c r="F20" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="12">
+        <v>62453834</v>
+      </c>
+      <c r="D21" s="10">
+        <v>45632</v>
+      </c>
+      <c r="E21" s="30">
+        <v>0.10694444444444444</v>
+      </c>
+      <c r="F21" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="12">
+        <v>67635844</v>
+      </c>
+      <c r="D22" s="10">
+        <v>45632</v>
+      </c>
+      <c r="E22" s="30">
+        <v>0.11527777777777778</v>
+      </c>
+      <c r="F22" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="12">
+        <v>33258008</v>
+      </c>
+      <c r="D23" s="10">
+        <v>45632</v>
+      </c>
+      <c r="E23" s="30">
+        <v>9.7916666666666666E-2</v>
+      </c>
+      <c r="F23" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="12">
+        <v>61856927</v>
+      </c>
+      <c r="D24" s="10">
+        <v>45632</v>
+      </c>
+      <c r="E24" s="30">
+        <v>0.11597222222222223</v>
+      </c>
+      <c r="F24" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="12">
+        <v>34529394</v>
+      </c>
+      <c r="D25" s="10">
+        <v>45632</v>
+      </c>
+      <c r="E25" s="30">
+        <v>0.12777777777777777</v>
+      </c>
+      <c r="F25" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="12">
+        <v>107388392</v>
+      </c>
+      <c r="D26" s="10">
+        <v>45785</v>
+      </c>
+      <c r="E26" s="30">
+        <v>0.12430555555555556</v>
+      </c>
+      <c r="F26" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="12">
+        <v>61804850</v>
+      </c>
+      <c r="D27" s="10">
+        <v>45835</v>
+      </c>
+      <c r="E27" s="30">
+        <v>0.13125000000000001</v>
+      </c>
+      <c r="F27" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="D29" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="10">
+        <v>44267</v>
+      </c>
+      <c r="C32" s="9">
+        <f>SUM(C11:C12)</f>
+        <v>979787719</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="10">
+        <v>45632</v>
+      </c>
+      <c r="C33" s="9">
+        <f>SUM(C14:C25)</f>
+        <v>3085292140</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D29:H29"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CB32B4-FE07-41E2-A9E1-C82EC3A5210B}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="34"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="12">
+        <v>35128393</v>
+      </c>
+      <c r="C2" s="10">
+        <f>Summary!C13</f>
+        <v>45920</v>
+      </c>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="12">
+        <v>12945016</v>
+      </c>
+      <c r="C3" s="10">
+        <f>Summary!C14</f>
+        <v>45920</v>
+      </c>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="10">
+        <f>Summary!C15</f>
+        <v>45920</v>
+      </c>
+      <c r="D4" s="35"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="8" t="str">
+        <f>INDEX(Spotify!A11:A27,MATCH(MAX(Spotify!C11:C27),Spotify!C11:C27,0))</f>
+        <v>APT.</v>
+      </c>
+      <c r="C5" s="10">
+        <f>Summary!C16</f>
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="9">
+        <f>SUM(Spotify!C11:C27)</f>
+        <v>4487351701</v>
+      </c>
+      <c r="C6" s="10">
+        <f>Summary!C17</f>
+        <v>45920</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A73A83-EAE8-4493-85B3-97A94E227E50}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="12">
+        <v>429228868</v>
+      </c>
+      <c r="D2" s="10">
+        <v>44267</v>
+      </c>
+      <c r="E2" s="30">
+        <v>0.14374999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="12">
+        <v>550558851</v>
+      </c>
+      <c r="D3" s="10">
+        <v>44267</v>
+      </c>
+      <c r="E3" s="30">
+        <v>0.11666666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="12">
+        <v>253078600</v>
+      </c>
+      <c r="D4" s="10">
+        <v>44820</v>
+      </c>
+      <c r="E4" s="30">
+        <v>0.1125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="12">
+        <v>2000246989</v>
+      </c>
+      <c r="D5" s="10">
+        <v>45632</v>
+      </c>
+      <c r="E5" s="30">
+        <v>0.11736111111111111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="12">
+        <v>322047684</v>
+      </c>
+      <c r="D6" s="10">
+        <v>45632</v>
+      </c>
+      <c r="E6" s="30">
+        <v>0.10833333333333334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="12">
+        <v>251175060</v>
+      </c>
+      <c r="D7" s="10">
+        <v>45632</v>
+      </c>
+      <c r="E7" s="30">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="12">
+        <v>40081478</v>
+      </c>
+      <c r="D8" s="10">
+        <v>45632</v>
+      </c>
+      <c r="E8" s="30">
+        <v>0.16388888888888889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="12">
+        <v>70989383</v>
+      </c>
+      <c r="D9" s="10">
+        <v>45632</v>
+      </c>
+      <c r="E9" s="30">
+        <v>0.17083333333333334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="12">
+        <v>39338067</v>
+      </c>
+      <c r="D10" s="10">
+        <v>45632</v>
+      </c>
+      <c r="E10" s="30">
+        <v>0.14861111111111111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="12">
+        <v>101679472</v>
+      </c>
+      <c r="D11" s="10">
+        <v>45632</v>
+      </c>
+      <c r="E11" s="30">
+        <v>9.2361111111111116E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="12">
+        <v>62453834</v>
+      </c>
+      <c r="D12" s="10">
+        <v>45632</v>
+      </c>
+      <c r="E12" s="30">
+        <v>0.10694444444444444</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="12">
+        <v>67635844</v>
+      </c>
+      <c r="D13" s="10">
+        <v>45632</v>
+      </c>
+      <c r="E13" s="30">
+        <v>0.11527777777777778</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="12">
+        <v>33258008</v>
+      </c>
+      <c r="D14" s="10">
+        <v>45632</v>
+      </c>
+      <c r="E14" s="30">
+        <v>9.7916666666666666E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="12">
+        <v>61856927</v>
+      </c>
+      <c r="D15" s="10">
+        <v>45632</v>
+      </c>
+      <c r="E15" s="30">
+        <v>0.11597222222222223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="12">
+        <v>34529394</v>
+      </c>
+      <c r="D16" s="10">
+        <v>45632</v>
+      </c>
+      <c r="E16" s="30">
+        <v>0.12777777777777777</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="12">
+        <v>107388392</v>
+      </c>
+      <c r="D17" s="10">
+        <v>45785</v>
+      </c>
+      <c r="E17" s="30">
+        <v>0.12430555555555556</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="12">
+        <v>61804850</v>
+      </c>
+      <c r="D18" s="10">
+        <v>45835</v>
+      </c>
+      <c r="E18" s="30">
+        <v>0.13125000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C18">
+    <cfRule type="top10" dxfId="1" priority="1" rank="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA06E0B9-8043-46F5-ABCD-6F70405B8C26}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="29">
+        <v>253078600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="29">
+        <v>253078600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="29">
+        <v>107388392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="29">
+        <v>107388392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="29">
+        <v>979787719</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="29">
+        <v>429228868</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="29">
+        <v>550558851</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="29">
+        <v>3085292140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="29">
+        <v>62453834</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="29">
+        <v>2000246989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="29">
+        <v>33258008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="29">
+        <v>39338067</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="29">
+        <v>101679472</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="29">
+        <v>67635844</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="29">
+        <v>34529394</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="29">
+        <v>251175060</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="29">
+        <v>70989383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="29">
+        <v>40081478</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="29">
+        <v>322047684</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="29">
+        <v>61856927</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="29">
+        <v>61804850</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="29">
+        <v>61804850</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" s="29">
+        <v>4487351701</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4246CB5-CEB4-4EF0-BBBE-F676D56A5CE7}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="D1" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="9">
+        <f>SUM(C12:C18)</f>
+        <v>3021510674</v>
+      </c>
+      <c r="C4" s="10">
+        <v>45920</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="8" t="str">
+        <f>INDEX(A12:A18, MATCH(MAX(C12:C18),C12:C18,0))</f>
+        <v>APT.</v>
+      </c>
+      <c r="C5" s="10">
+        <v>45920</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="9">
+        <f>MAX(C12:C18)</f>
+        <v>2005894440</v>
+      </c>
+      <c r="C6" s="10">
+        <v>45920</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="9">
+        <v>19200000</v>
+      </c>
+      <c r="C7" s="10">
+        <v>45920</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="D9" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="10">
+        <v>44290</v>
+      </c>
+      <c r="C12" s="9">
+        <v>329426987</v>
+      </c>
+      <c r="D12" s="9">
+        <v>7789364</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="10">
+        <v>44267</v>
+      </c>
+      <c r="C13" s="9">
+        <v>385273931</v>
+      </c>
+      <c r="D13" s="9">
+        <v>11601066</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="10">
+        <v>45583</v>
+      </c>
+      <c r="C14" s="9">
+        <v>2005894440</v>
+      </c>
+      <c r="D14" s="9">
+        <v>16858117</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="10">
+        <v>45618</v>
+      </c>
+      <c r="C15" s="9">
+        <v>119001688</v>
+      </c>
+      <c r="D15" s="9">
+        <v>2505794</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="10">
+        <v>45632</v>
+      </c>
+      <c r="C16" s="9">
+        <v>112265374</v>
+      </c>
+      <c r="D16" s="9">
+        <v>2523082</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="10">
+        <v>45786</v>
+      </c>
+      <c r="C17" s="9">
+        <v>53027655</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1239856</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="10">
+        <v>45835</v>
+      </c>
+      <c r="C18" s="9">
+        <v>16620599</v>
+      </c>
+      <c r="D18" s="9">
+        <v>508102</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="A20:D20"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA0722C9-5EB0-4FDA-B22E-502C2C32DF81}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="9">
+        <f>YouTube!B4</f>
+        <v>3021510674</v>
+      </c>
+      <c r="C2" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="8" t="str">
+        <f>INDEX(YouTube!A12:A18, MATCH(MAX(YouTube!C12:C18),YouTube!C12:C18,0))</f>
+        <v>APT.</v>
+      </c>
+      <c r="C3" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="9">
+        <f>MAX(YouTube!C12:C18)</f>
+        <v>2005894440</v>
+      </c>
+      <c r="C4" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="9">
+        <v>19200000</v>
+      </c>
+      <c r="C5" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0693C0-B4EA-4378-9A58-98E1E03D537E}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44290</v>
+      </c>
+      <c r="C2" s="9">
+        <v>329426987</v>
+      </c>
+      <c r="D2" s="9">
+        <v>7789364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="10">
+        <v>44267</v>
+      </c>
+      <c r="C3" s="9">
+        <v>385273931</v>
+      </c>
+      <c r="D3" s="9">
+        <v>11601066</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="10">
+        <v>45583</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2005894440</v>
+      </c>
+      <c r="D4" s="9">
+        <v>16858117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="10">
+        <v>45618</v>
+      </c>
+      <c r="C5" s="9">
+        <v>119001688</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2505794</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="10">
+        <v>45632</v>
+      </c>
+      <c r="C6" s="9">
+        <v>112265374</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2523082</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="10">
+        <v>45786</v>
+      </c>
+      <c r="C7" s="9">
+        <v>53027655</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1239856</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="10">
+        <v>45835</v>
+      </c>
+      <c r="C8" s="9">
+        <v>16620599</v>
+      </c>
+      <c r="D8" s="9">
+        <v>508102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ROSÉ Business Insights.xlsx
+++ b/ROSÉ Business Insights.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nzmz_\Desktop\Data Analyst Portfolio\Ros-_Entertainment_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0B9B9A-E049-474A-9337-5DA58AC8B4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A167CE22-586F-463C-9E6C-6DE1FAD5C467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="16" xr2:uid="{0FA3C6EE-BCC2-4624-8E49-B02A035F49AC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="13" xr2:uid="{0FA3C6EE-BCC2-4624-8E49-B02A035F49AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Notes" sheetId="2" r:id="rId1"/>
     <sheet name="Summary" sheetId="1" r:id="rId2"/>
     <sheet name="Spotify" sheetId="3" r:id="rId3"/>
-    <sheet name="SpotifyData_Stats" sheetId="9" r:id="rId4"/>
-    <sheet name="SpotifyData_Tracks" sheetId="10" r:id="rId5"/>
-    <sheet name="SpotifyData_Albums" sheetId="11" r:id="rId6"/>
+    <sheet name="Spotify_Overview" sheetId="9" r:id="rId4"/>
+    <sheet name="Spotify_Tracks" sheetId="10" r:id="rId5"/>
+    <sheet name="Spotify_Albums" sheetId="11" r:id="rId6"/>
     <sheet name="YouTube" sheetId="4" r:id="rId7"/>
-    <sheet name="YouTubeData_Stats" sheetId="12" r:id="rId8"/>
-    <sheet name="YouTubeData_MVs" sheetId="13" r:id="rId9"/>
+    <sheet name="YouTube_Overview" sheetId="12" r:id="rId8"/>
+    <sheet name="YouTube_MVs" sheetId="13" r:id="rId9"/>
     <sheet name="Instagram" sheetId="5" r:id="rId10"/>
-    <sheet name="InstagramData_Stats" sheetId="14" r:id="rId11"/>
-    <sheet name="InstagramData_Posts" sheetId="15" r:id="rId12"/>
+    <sheet name="Instagram_Overview" sheetId="14" r:id="rId11"/>
+    <sheet name="Instagram_Posts" sheetId="15" r:id="rId12"/>
     <sheet name="Twitter_X" sheetId="6" r:id="rId13"/>
-    <sheet name="TwitterData_Stats" sheetId="16" r:id="rId14"/>
-    <sheet name="TwitterData_Tweets" sheetId="17" r:id="rId15"/>
+    <sheet name="Twitter_Overview" sheetId="16" r:id="rId14"/>
+    <sheet name="Twitter_Tweets" sheetId="17" r:id="rId15"/>
     <sheet name="Google Trends" sheetId="7" r:id="rId16"/>
     <sheet name="GoogleTrends_InterestOverTime" sheetId="18" r:id="rId17"/>
     <sheet name="GoogleTrends_InterestOverRegion" sheetId="19" r:id="rId18"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="160">
   <si>
     <t>ROSÉ Entertainment Data</t>
   </si>
@@ -637,13 +637,7 @@
     <t>618,184 listeners</t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
     <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Sum of Stream</t>
   </si>
   <si>
     <t>Follower Count</t>
@@ -887,13 +881,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1156,7 +1150,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Zulaikha Zulasri" refreshedDate="45920.838263078702" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="17" xr:uid="{753EE862-D31A-4654-998A-092F4383BEDC}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E18" sheet="SpotifyData_Tracks"/>
+    <worksheetSource ref="A1:E18" sheet="Spotify_Tracks"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Track Title" numFmtId="0">
@@ -1332,10 +1326,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{10202EDA-500A-4C2D-AF0C-71759D0F0112}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:B24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{10202EDA-500A-4C2D-AF0C-71759D0F0112}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Album Title">
+  <location ref="A1:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0">
       <items count="18">
         <item x="10"/>
         <item x="3"/>
@@ -1371,76 +1365,24 @@
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField numFmtId="20" showAll="0"/>
   </pivotFields>
-  <rowFields count="2">
+  <rowFields count="1">
     <field x="1"/>
-    <field x="0"/>
   </rowFields>
-  <rowItems count="23">
+  <rowItems count="6">
     <i>
       <x/>
-    </i>
-    <i r="1">
-      <x v="7"/>
     </i>
     <i>
       <x v="1"/>
     </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
     <i>
       <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
     </i>
     <i>
       <x v="3"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x v="14"/>
-    </i>
-    <i r="1">
-      <x v="15"/>
-    </i>
-    <i r="1">
-      <x v="16"/>
-    </i>
     <i>
       <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
     </i>
     <i t="grand">
       <x/>
@@ -1450,7 +1392,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Stream" fld="2" baseField="0" baseItem="0" numFmtId="3"/>
+    <dataField name="Total Stream" fld="2" baseField="0" baseItem="0" numFmtId="3"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2499,7 +2441,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2520,7 +2462,7 @@
       <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="34"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -2578,10 +2520,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CFEFA5-869B-4A48-85D0-E4B81BA37CC7}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2592,9 +2534,10 @@
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>77</v>
       </c>
@@ -2608,13 +2551,16 @@
         <v>94</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>45913</v>
       </c>
@@ -2628,15 +2574,18 @@
         <v>19100</v>
       </c>
       <c r="E2" s="17">
-        <f>InstagramData_Stats!$B$2</f>
+        <f>Instagram_Overview!$B$2</f>
         <v>84601628</v>
       </c>
       <c r="F2" s="18">
         <f>SUM(C2:D2)/E2</f>
         <v>3.3567592812752962E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>45913</v>
       </c>
@@ -2650,15 +2599,18 @@
         <v>9452</v>
       </c>
       <c r="E3" s="17">
-        <f>InstagramData_Stats!$B$2</f>
+        <f>Instagram_Overview!$B$2</f>
         <v>84601628</v>
       </c>
       <c r="F3" s="18">
         <f t="shared" ref="F3:F11" si="0">SUM(C3:D3)/E3</f>
         <v>6.3051268942484178E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>45913</v>
       </c>
@@ -2672,15 +2624,18 @@
         <v>17400</v>
       </c>
       <c r="E4" s="17">
-        <f>InstagramData_Stats!$B$2</f>
+        <f>Instagram_Overview!$B$2</f>
         <v>84601628</v>
       </c>
       <c r="F4" s="18">
         <f t="shared" si="0"/>
         <v>2.2036112591119403E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>45909</v>
       </c>
@@ -2694,15 +2649,18 @@
         <v>29000</v>
       </c>
       <c r="E5" s="17">
-        <f>InstagramData_Stats!$B$2</f>
+        <f>Instagram_Overview!$B$2</f>
         <v>84601628</v>
       </c>
       <c r="F5" s="18">
         <f t="shared" si="0"/>
         <v>2.8334041042330768E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>45908</v>
       </c>
@@ -2716,15 +2674,18 @@
         <v>20600</v>
       </c>
       <c r="E6" s="17">
-        <f>InstagramData_Stats!$B$2</f>
+        <f>Instagram_Overview!$B$2</f>
         <v>84601628</v>
       </c>
       <c r="F6" s="18">
         <f t="shared" si="0"/>
         <v>3.9236620836658131E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>45900</v>
       </c>
@@ -2738,15 +2699,18 @@
         <v>22200</v>
       </c>
       <c r="E7" s="17">
-        <f>InstagramData_Stats!$B$2</f>
+        <f>Instagram_Overview!$B$2</f>
         <v>84601628</v>
       </c>
       <c r="F7" s="18">
         <f t="shared" si="0"/>
         <v>3.5659786594177595E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>45895</v>
       </c>
@@ -2760,15 +2724,18 @@
         <v>10600</v>
       </c>
       <c r="E8" s="17">
-        <f>InstagramData_Stats!$B$2</f>
+        <f>Instagram_Overview!$B$2</f>
         <v>84601628</v>
       </c>
       <c r="F8" s="18">
         <f t="shared" si="0"/>
         <v>1.6183163756612343E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>45893</v>
       </c>
@@ -2782,15 +2749,18 @@
         <v>12400</v>
       </c>
       <c r="E9" s="17">
-        <f>InstagramData_Stats!$B$2</f>
+        <f>Instagram_Overview!$B$2</f>
         <v>84601628</v>
       </c>
       <c r="F9" s="18">
         <f t="shared" si="0"/>
         <v>2.9737453752072006E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>45887</v>
       </c>
@@ -2804,15 +2774,18 @@
         <v>11000</v>
       </c>
       <c r="E10" s="17">
-        <f>InstagramData_Stats!$B$2</f>
+        <f>Instagram_Overview!$B$2</f>
         <v>84601628</v>
       </c>
       <c r="F10" s="18">
         <f t="shared" si="0"/>
         <v>2.0392704499729013E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>45880</v>
       </c>
@@ -2826,12 +2799,15 @@
         <v>20400</v>
       </c>
       <c r="E11" s="17">
-        <f>InstagramData_Stats!$B$2</f>
+        <f>Instagram_Overview!$B$2</f>
         <v>84601628</v>
       </c>
       <c r="F11" s="18">
         <f t="shared" si="0"/>
         <v>4.683114372219882E-2</v>
+      </c>
+      <c r="G11" s="10">
+        <v>45915</v>
       </c>
     </row>
   </sheetData>
@@ -2844,7 +2820,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3272,8 +3248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5B1BD2-767A-46E8-A585-2C34077E3989}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3335,10 +3311,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF58C9D7-C19E-4761-9787-2A373F487714}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I1" sqref="I1:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3351,9 +3327,10 @@
     <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>92</v>
       </c>
@@ -3373,13 +3350,16 @@
         <v>101</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>45908</v>
       </c>
@@ -3399,15 +3379,18 @@
         <v>237</v>
       </c>
       <c r="G2" s="9">
-        <f>TwitterData_Stats!$B$2</f>
+        <f>Twitter_Overview!$B$2</f>
         <v>111878</v>
       </c>
       <c r="H2" s="11">
         <f>SUM(D2:F2)/G2</f>
         <v>0.64609664098392894</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>45908</v>
       </c>
@@ -3427,15 +3410,18 @@
         <v>864</v>
       </c>
       <c r="G3" s="9">
-        <f>TwitterData_Stats!$B$2</f>
+        <f>Twitter_Overview!$B$2</f>
         <v>111878</v>
       </c>
       <c r="H3" s="11">
         <f t="shared" ref="H3:H11" si="0">SUM(D3:F3)/G3</f>
         <v>1.1575555515829743</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>45908</v>
       </c>
@@ -3455,15 +3441,18 @@
         <v>255</v>
       </c>
       <c r="G4" s="9">
-        <f>TwitterData_Stats!$B$2</f>
+        <f>Twitter_Overview!$B$2</f>
         <v>111878</v>
       </c>
       <c r="H4" s="11">
         <f t="shared" si="0"/>
         <v>0.21510931550438872</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>45908</v>
       </c>
@@ -3483,15 +3472,18 @@
         <v>204</v>
       </c>
       <c r="G5" s="9">
-        <f>TwitterData_Stats!$B$2</f>
+        <f>Twitter_Overview!$B$2</f>
         <v>111878</v>
       </c>
       <c r="H5" s="11">
         <f t="shared" si="0"/>
         <v>0.25851373817908796</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>45908</v>
       </c>
@@ -3511,15 +3503,18 @@
         <v>269</v>
       </c>
       <c r="G6" s="9">
-        <f>TwitterData_Stats!$B$2</f>
+        <f>Twitter_Overview!$B$2</f>
         <v>111878</v>
       </c>
       <c r="H6" s="11">
         <f t="shared" si="0"/>
         <v>0.17081106204973273</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>45906</v>
       </c>
@@ -3539,15 +3534,18 @@
         <v>217</v>
       </c>
       <c r="G7" s="9">
-        <f>TwitterData_Stats!$B$2</f>
+        <f>Twitter_Overview!$B$2</f>
         <v>111878</v>
       </c>
       <c r="H7" s="11">
         <f t="shared" si="0"/>
         <v>0.13768569334453601</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>45906</v>
       </c>
@@ -3567,15 +3565,18 @@
         <v>332</v>
       </c>
       <c r="G8" s="9">
-        <f>TwitterData_Stats!$B$2</f>
+        <f>Twitter_Overview!$B$2</f>
         <v>111878</v>
       </c>
       <c r="H8" s="11">
         <f t="shared" si="0"/>
         <v>9.080426893580508E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>45905</v>
       </c>
@@ -3595,15 +3596,18 @@
         <v>174</v>
       </c>
       <c r="G9" s="9">
-        <f>TwitterData_Stats!$B$2</f>
+        <f>Twitter_Overview!$B$2</f>
         <v>111878</v>
       </c>
       <c r="H9" s="11">
         <f t="shared" si="0"/>
         <v>9.1188616171186468E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>45901</v>
       </c>
@@ -3623,15 +3627,18 @@
         <v>98</v>
       </c>
       <c r="G10" s="9">
-        <f>TwitterData_Stats!$B$2</f>
+        <f>Twitter_Overview!$B$2</f>
         <v>111878</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="0"/>
         <v>9.2413164339727197E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>45897</v>
       </c>
@@ -3651,13 +3658,22 @@
         <v>172</v>
       </c>
       <c r="G11" s="9">
-        <f>TwitterData_Stats!$B$2</f>
+        <f>Twitter_Overview!$B$2</f>
         <v>111878</v>
       </c>
       <c r="H11" s="11">
         <f t="shared" si="0"/>
         <v>0.12552065642932481</v>
       </c>
+      <c r="I11" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I12" s="35"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I13" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3668,8 +3684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00D7A9F-20B8-4F57-A14E-BB573AD9F3F7}">
   <dimension ref="A1:K137"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5711,7 +5727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA86730-3D49-4594-85F8-2A1B87FD4262}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -6539,10 +6555,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179F9F10-530F-4257-B5F4-C178455903C0}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6551,9 +6567,10 @@
     <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>150</v>
       </c>
@@ -6566,8 +6583,11 @@
       <c r="D1" s="7" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="23">
         <f>ROW(A1)</f>
         <v>1</v>
@@ -6582,8 +6602,11 @@
       <c r="D2" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="23">
         <f t="shared" ref="A3:A33" si="0">ROW(A2)</f>
         <v>2</v>
@@ -6598,8 +6621,11 @@
       <c r="D3" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="23">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6614,8 +6640,11 @@
       <c r="D4" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6630,8 +6659,11 @@
       <c r="D5" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6646,8 +6678,11 @@
       <c r="D6" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6662,8 +6697,11 @@
       <c r="D7" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6678,8 +6716,11 @@
       <c r="D8" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6694,8 +6735,11 @@
       <c r="D9" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6710,8 +6754,11 @@
       <c r="D10" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6726,8 +6773,11 @@
       <c r="D11" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6742,8 +6792,11 @@
       <c r="D12" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6758,8 +6811,11 @@
       <c r="D13" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6774,8 +6830,11 @@
       <c r="D14" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6790,8 +6849,11 @@
       <c r="D15" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6806,8 +6868,11 @@
       <c r="D16" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6822,8 +6887,11 @@
       <c r="D17" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6838,8 +6906,11 @@
       <c r="D18" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6854,8 +6925,11 @@
       <c r="D19" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -6870,8 +6944,11 @@
       <c r="D20" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6886,8 +6963,11 @@
       <c r="D21" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -6902,8 +6982,11 @@
       <c r="D22" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -6918,8 +7001,11 @@
       <c r="D23" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -6934,8 +7020,11 @@
       <c r="D24" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -6950,8 +7039,11 @@
       <c r="D25" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -6966,8 +7058,11 @@
       <c r="D26" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -6982,8 +7077,11 @@
       <c r="D27" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -6998,8 +7096,11 @@
       <c r="D28" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -7014,8 +7115,11 @@
       <c r="D29" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -7030,8 +7134,11 @@
       <c r="D30" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -7046,8 +7153,11 @@
       <c r="D31" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="23">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -7062,8 +7172,11 @@
       <c r="D32" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" s="10">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="23">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -7077,6 +7190,9 @@
       </c>
       <c r="D33" s="23">
         <v>0</v>
+      </c>
+      <c r="E33" s="10">
+        <v>45915</v>
       </c>
     </row>
   </sheetData>
@@ -7546,8 +7662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA47F01-DFB1-497B-A6BB-550548CE327E}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8068,7 +8184,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8089,7 +8205,7 @@
       <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="34"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -8128,7 +8244,7 @@
         <f>Summary!C15</f>
         <v>45920</v>
       </c>
-      <c r="D4" s="35"/>
+      <c r="D4" s="34"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -8163,10 +8279,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A73A83-EAE8-4493-85B3-97A94E227E50}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C18"/>
+      <selection activeCell="F1" sqref="F1:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8176,9 +8292,10 @@
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>70</v>
       </c>
@@ -8194,8 +8311,11 @@
       <c r="E1" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>45</v>
       </c>
@@ -8211,8 +8331,11 @@
       <c r="E2" s="30">
         <v>0.14374999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>46</v>
       </c>
@@ -8228,8 +8351,11 @@
       <c r="E3" s="30">
         <v>0.11666666666666667</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>47</v>
       </c>
@@ -8245,8 +8371,11 @@
       <c r="E4" s="30">
         <v>0.1125</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
@@ -8262,8 +8391,11 @@
       <c r="E5" s="30">
         <v>0.11736111111111111</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>64</v>
       </c>
@@ -8279,8 +8411,11 @@
       <c r="E6" s="30">
         <v>0.10833333333333334</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>49</v>
       </c>
@@ -8296,8 +8431,11 @@
       <c r="E7" s="30">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>51</v>
       </c>
@@ -8313,8 +8451,11 @@
       <c r="E8" s="30">
         <v>0.16388888888888889</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>52</v>
       </c>
@@ -8330,8 +8471,11 @@
       <c r="E9" s="30">
         <v>0.17083333333333334</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>53</v>
       </c>
@@ -8347,8 +8491,11 @@
       <c r="E10" s="30">
         <v>0.14861111111111111</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>65</v>
       </c>
@@ -8364,8 +8511,11 @@
       <c r="E11" s="30">
         <v>9.2361111111111116E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>48</v>
       </c>
@@ -8381,8 +8531,11 @@
       <c r="E12" s="30">
         <v>0.10694444444444444</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>54</v>
       </c>
@@ -8398,8 +8551,11 @@
       <c r="E13" s="30">
         <v>0.11527777777777778</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>55</v>
       </c>
@@ -8415,8 +8571,11 @@
       <c r="E14" s="30">
         <v>9.7916666666666666E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>50</v>
       </c>
@@ -8432,8 +8591,11 @@
       <c r="E15" s="30">
         <v>0.11597222222222223</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>56</v>
       </c>
@@ -8449,8 +8611,11 @@
       <c r="E16" s="30">
         <v>0.12777777777777777</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>57</v>
       </c>
@@ -8466,8 +8631,11 @@
       <c r="E17" s="30">
         <v>0.12430555555555556</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>58</v>
       </c>
@@ -8482,6 +8650,9 @@
       </c>
       <c r="E18" s="30">
         <v>0.13125000000000001</v>
+      </c>
+      <c r="F18" s="10">
+        <v>45920</v>
       </c>
     </row>
   </sheetData>
@@ -8494,210 +8665,126 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA06E0B9-8043-46F5-ABCD-6F70405B8C26}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="29">
         <v>253078600</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
-        <v>47</v>
+      <c r="C2" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
+        <v>62</v>
       </c>
       <c r="B3" s="29">
-        <v>253078600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>107388392</v>
+      </c>
+      <c r="C3" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" s="29">
-        <v>107388392</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
-        <v>57</v>
+        <v>979787719</v>
+      </c>
+      <c r="C4" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
+        <v>61</v>
       </c>
       <c r="B5" s="29">
-        <v>107388392</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3085292140</v>
+      </c>
+      <c r="C5" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B6" s="29">
-        <v>979787719</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
-        <v>45</v>
+        <v>61804850</v>
+      </c>
+      <c r="C6" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
+        <v>158</v>
       </c>
       <c r="B7" s="29">
-        <v>429228868</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="29">
-        <v>550558851</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="29">
-        <v>3085292140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="29">
-        <v>62453834</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="29">
-        <v>2000246989</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="29">
-        <v>33258008</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="29">
-        <v>39338067</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="29">
-        <v>101679472</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="29">
-        <v>67635844</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="29">
-        <v>34529394</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="29">
-        <v>251175060</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="29">
-        <v>70989383</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="29">
-        <v>40081478</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="29">
-        <v>322047684</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="29">
-        <v>61856927</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="29">
-        <v>61804850</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="29">
-        <v>61804850</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="B24" s="29">
         <v>4487351701</v>
       </c>
+      <c r="C7" s="35"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="35"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" s="35"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10" s="35"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11" s="35"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12" s="35"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13" s="35"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14" s="35"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15" s="35"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" s="35"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="35"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8709,7 +8796,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:D18"/>
+      <selection activeCell="E11" sqref="E11:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8973,7 +9060,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9048,10 +9135,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0693C0-B4EA-4378-9A58-98E1E03D537E}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9060,9 +9147,10 @@
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>72</v>
       </c>
@@ -9075,8 +9163,11 @@
       <c r="D1" s="7" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>45</v>
       </c>
@@ -9089,8 +9180,11 @@
       <c r="D2" s="9">
         <v>7789364</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>46</v>
       </c>
@@ -9103,8 +9197,11 @@
       <c r="D3" s="9">
         <v>11601066</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>19</v>
       </c>
@@ -9117,8 +9214,11 @@
       <c r="D4" s="9">
         <v>16858117</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>49</v>
       </c>
@@ -9131,8 +9231,11 @@
       <c r="D5" s="9">
         <v>2505794</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>64</v>
       </c>
@@ -9145,8 +9248,11 @@
       <c r="D6" s="9">
         <v>2523082</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>57</v>
       </c>
@@ -9159,8 +9265,11 @@
       <c r="D7" s="9">
         <v>1239856</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="10">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>58</v>
       </c>
@@ -9172,6 +9281,9 @@
       </c>
       <c r="D8" s="9">
         <v>508102</v>
+      </c>
+      <c r="E8" s="10">
+        <v>45920</v>
       </c>
     </row>
   </sheetData>
